--- a/design-document/ScreenClassManagement.xlsx
+++ b/design-document/ScreenClassManagement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22267" windowHeight="12653" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22267" windowHeight="12653" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="01_Screen Layout" sheetId="4" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="03_Definition" sheetId="6" r:id="rId3"/>
     <sheet name="04_check Condition Monadic" sheetId="3" r:id="rId4"/>
     <sheet name="05_Check Condition" sheetId="2" r:id="rId5"/>
+    <sheet name="06_Mapping Class, Action" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'01_Screen Layout'!$A$1:$K$27</definedName>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="125">
   <si>
     <t>Dữ liệu do hệ thống tính toán và chuyền vào</t>
   </si>
@@ -424,6 +425,39 @@
   </si>
   <si>
     <t>Form number</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>DAO</t>
+  </si>
+  <si>
+    <t>BLO</t>
+  </si>
+  <si>
+    <t>VIEW</t>
+  </si>
+  <si>
+    <t>Class.cs , DbConnect.cs</t>
+  </si>
+  <si>
+    <t>LoadClass.cs</t>
+  </si>
+  <si>
+    <t>ClassScreen.xaml</t>
+  </si>
+  <si>
+    <t>Xóa thông tin lớp học</t>
+  </si>
+  <si>
+    <t>Lưu thông tin lớp học</t>
+  </si>
+  <si>
+    <t>SaveClass.cs</t>
+  </si>
+  <si>
+    <t>DeleteClass.cs</t>
   </si>
 </sst>
 </file>
@@ -509,7 +543,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,8 +568,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -890,6 +930,155 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -898,7 +1087,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1047,121 +1236,167 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3965,15 +4200,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>49953</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1424093</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>510540</xdr:rowOff>
+      <xdr:rowOff>552873</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3984,7 +4219,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15240" y="7620"/>
+          <a:off x="0" y="49953"/>
           <a:ext cx="11482493" cy="502920"/>
           <a:chOff x="0" y="2"/>
           <a:chExt cx="1121" cy="52"/>
@@ -5807,6 +6042,656 @@
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="23" name="Text Box 209"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3" y="34"/>
+            <a:ext cx="154" cy="19"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>screen name</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2692400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>663787</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 199"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9177866" cy="663787"/>
+          <a:chOff x="0" y="2"/>
+          <a:chExt cx="1121" cy="52"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Picture 200" descr="PTMS_docs_header"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect b="32468"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="0" y="2"/>
+            <a:ext cx="1121" cy="52"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Text Box 201"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="287" y="10"/>
+            <a:ext cx="274" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Screen item definition</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Text Box 202"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="565" y="11"/>
+            <a:ext cx="155" cy="20"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>system-name</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Text Box 203"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="727" y="9"/>
+            <a:ext cx="384" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>Aidiko dojo's Member Management</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Text Box 204"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="163" y="10"/>
+            <a:ext cx="122" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>AKD</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Text Box 205"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="566" y="34"/>
+            <a:ext cx="155" cy="19"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Screen ID</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Text Box 206"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="161" y="34"/>
+            <a:ext cx="394" cy="19"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t> Class Management</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Text Box 207"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="725" y="33"/>
+            <a:ext cx="393" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>AKD006</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="Text Box 208"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4" y="11"/>
+            <a:ext cx="154" cy="20"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Form number</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Text Box 209"/>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6445,7 +7330,7 @@
       <c r="L7" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="M7" s="86" t="s">
+      <c r="M7" s="55" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6485,7 +7370,7 @@
       <c r="L8" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="M8" s="87"/>
+      <c r="M8" s="56"/>
     </row>
     <row r="9" spans="1:13" ht="30" customHeight="1">
       <c r="A9" s="9">
@@ -6523,7 +7408,7 @@
       <c r="L9" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="87"/>
+      <c r="M9" s="56"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1">
       <c r="A10" s="9">
@@ -6561,7 +7446,7 @@
       <c r="L10" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="M10" s="87"/>
+      <c r="M10" s="56"/>
     </row>
     <row r="11" spans="1:13" ht="17.350000000000001" customHeight="1">
       <c r="A11" s="5">
@@ -6599,7 +7484,7 @@
       <c r="L11" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="M11" s="87"/>
+      <c r="M11" s="56"/>
     </row>
     <row r="12" spans="1:13" ht="37.35" customHeight="1">
       <c r="A12" s="5">
@@ -6635,7 +7520,7 @@
       <c r="L12" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="M12" s="87"/>
+      <c r="M12" s="56"/>
     </row>
     <row r="13" spans="1:13" ht="17.350000000000001" customHeight="1">
       <c r="A13" s="5">
@@ -6672,7 +7557,7 @@
       <c r="L13" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="M13" s="88"/>
+      <c r="M13" s="57"/>
     </row>
     <row r="14" spans="1:13" ht="34" customHeight="1">
       <c r="A14" s="5">
@@ -6731,8 +7616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:L3"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.7"/>
@@ -6745,374 +7630,374 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="66"/>
       <c r="C1" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56" t="s">
+      <c r="E1" s="66"/>
+      <c r="F1" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="81" t="s">
+      <c r="G1" s="66"/>
+      <c r="H1" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="82"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="68"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="66" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="58" t="s">
+      <c r="D2" s="70"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="66" t="s">
+      <c r="G2" s="72"/>
+      <c r="H2" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="68"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="74"/>
     </row>
     <row r="3" spans="1:12" ht="45.35" customHeight="1">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="60"/>
+      <c r="B3" s="86"/>
       <c r="C3" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="65"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="73"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="72"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="78"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="52"/>
-      <c r="B5" s="52"/>
+      <c r="A5" s="89"/>
+      <c r="B5" s="89"/>
     </row>
     <row r="6" spans="1:12" ht="13.35">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="77" t="s">
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
     </row>
     <row r="9" spans="1:12" ht="86.7" customHeight="1">
       <c r="A9" s="48">
         <v>1</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="84" t="s">
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
     </row>
     <row r="10" spans="1:12">
       <c r="E10" s="50"/>
     </row>
     <row r="11" spans="1:12" ht="13.35">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="77" t="s">
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
     </row>
     <row r="14" spans="1:12" ht="31.5" customHeight="1">
       <c r="A14" s="48">
         <v>1</v>
       </c>
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
       <c r="E14" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="76"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="62"/>
     </row>
     <row r="15" spans="1:12" ht="15.85" customHeight="1">
       <c r="A15" s="48">
         <v>2</v>
       </c>
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
       <c r="E15" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="76"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="62"/>
     </row>
     <row r="16" spans="1:12" ht="64.7" customHeight="1">
       <c r="A16" s="47">
         <v>3</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="75" t="s">
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="76"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="62"/>
     </row>
     <row r="17" spans="1:12" ht="64.7" customHeight="1">
       <c r="A17" s="47">
         <v>4</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="75" t="s">
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="76"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="62"/>
     </row>
     <row r="18" spans="1:12" ht="64.7" customHeight="1">
       <c r="A18" s="47">
         <v>5</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="75" t="s">
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="76"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="62"/>
     </row>
     <row r="21" spans="1:12" ht="11.35" customHeight="1"/>
     <row r="22" spans="1:12" ht="15" customHeight="1"/>
     <row r="23" spans="1:12" ht="15" customHeight="1"/>
     <row r="24" spans="1:12" ht="13.35">
-      <c r="A24" s="53"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
+      <c r="A24" s="90"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="91"/>
     </row>
     <row r="25" spans="1:12" ht="13.35">
-      <c r="A25" s="53"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
+      <c r="A25" s="90"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="91"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="53"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
+      <c r="A26" s="90"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="90"/>
+      <c r="K26" s="90"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="52"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
+      <c r="A27" s="89"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="89"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="52"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
+      <c r="A28" s="89"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="89"/>
+      <c r="K28" s="89"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="52"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
+      <c r="A29" s="89"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="89"/>
+      <c r="K29" s="89"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="52"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
+      <c r="A30" s="89"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:L18"/>
-    <mergeCell ref="E14:L14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:L15"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:L17"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="A30:K30"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="C3:L3"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="A6:C6"/>
@@ -7127,18 +8012,18 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="E9:L9"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A29:K29"/>
-    <mergeCell ref="A30:K30"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:L18"/>
+    <mergeCell ref="E14:L14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:L15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:L17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="85" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7206,8 +8091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection sqref="A1:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
@@ -7335,10 +8220,10 @@
       <c r="L4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="89" t="s">
+      <c r="M4" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="90" t="s">
+      <c r="N4" s="53" t="s">
         <v>26</v>
       </c>
       <c r="O4" s="28" t="s">
@@ -7382,10 +8267,10 @@
       <c r="L5" s="8">
         <v>30</v>
       </c>
-      <c r="M5" s="89" t="s">
+      <c r="M5" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="N5" s="90" t="s">
+      <c r="N5" s="53" t="s">
         <v>24</v>
       </c>
       <c r="O5" s="28" t="s">
@@ -7429,10 +8314,10 @@
       <c r="L6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="89" t="s">
+      <c r="M6" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="90" t="s">
+      <c r="N6" s="53" t="s">
         <v>22</v>
       </c>
       <c r="O6" s="28" t="s">
@@ -7476,10 +8361,10 @@
       <c r="L7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="M7" s="89" t="s">
+      <c r="M7" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="N7" s="90" t="s">
+      <c r="N7" s="53" t="s">
         <v>20</v>
       </c>
       <c r="O7" s="28" t="s">
@@ -7523,10 +8408,10 @@
       <c r="L8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="M8" s="89" t="s">
+      <c r="M8" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="N8" s="90" t="s">
+      <c r="N8" s="53" t="s">
         <v>18</v>
       </c>
       <c r="O8" s="28" t="s">
@@ -7570,10 +8455,10 @@
       <c r="L9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M9" s="89" t="s">
+      <c r="M9" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="N9" s="90" t="s">
+      <c r="N9" s="53" t="s">
         <v>16</v>
       </c>
       <c r="O9" s="8" t="s">
@@ -7617,10 +8502,10 @@
       <c r="L10" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="M10" s="89" t="s">
+      <c r="M10" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="N10" s="90" t="s">
+      <c r="N10" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O10" s="8" t="s">
@@ -7664,10 +8549,10 @@
       <c r="L11" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="M11" s="89" t="s">
+      <c r="M11" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="N11" s="90" t="s">
+      <c r="N11" s="53" t="s">
         <v>12</v>
       </c>
       <c r="O11" s="8" t="s">
@@ -7711,10 +8596,10 @@
       <c r="L12" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="M12" s="89" t="s">
+      <c r="M12" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="N12" s="90" t="s">
+      <c r="N12" s="53" t="s">
         <v>10</v>
       </c>
       <c r="O12" s="8" t="s">
@@ -7758,10 +8643,10 @@
       <c r="L13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="M13" s="89" t="s">
+      <c r="M13" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="N13" s="90" t="s">
+      <c r="N13" s="53" t="s">
         <v>8</v>
       </c>
       <c r="O13" s="8" t="s">
@@ -7805,10 +8690,10 @@
       <c r="L14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M14" s="89" t="s">
+      <c r="M14" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="N14" s="90" t="s">
+      <c r="N14" s="53" t="s">
         <v>5</v>
       </c>
       <c r="O14" s="8" t="s">
@@ -7852,10 +8737,10 @@
       <c r="L15" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="M15" s="89" t="s">
+      <c r="M15" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="90" t="s">
+      <c r="N15" s="53" t="s">
         <v>3</v>
       </c>
       <c r="O15" s="8" t="s">
@@ -7881,7 +8766,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
@@ -7963,7 +8848,7 @@
       <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="91" t="s">
+      <c r="E5" s="54" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -7989,7 +8874,7 @@
       <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="91" t="s">
+      <c r="E6" s="54" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="8" t="s">
@@ -8015,7 +8900,7 @@
       <c r="D7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="91" t="s">
+      <c r="E7" s="54" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -8041,7 +8926,7 @@
       <c r="D8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="91" t="s">
+      <c r="E8" s="54" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -8067,7 +8952,7 @@
       <c r="D9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="91" t="s">
+      <c r="E9" s="54" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="10" t="s">
@@ -8093,7 +8978,7 @@
       <c r="D10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="91" t="s">
+      <c r="E10" s="54" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -8119,7 +9004,7 @@
       <c r="D11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="91" t="s">
+      <c r="E11" s="54" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -8145,7 +9030,7 @@
       <c r="D12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="91" t="s">
+      <c r="E12" s="54" t="s">
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -8171,7 +9056,7 @@
       <c r="D13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="91" t="s">
+      <c r="E13" s="54" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -8197,7 +9082,7 @@
       <c r="D14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="91" t="s">
+      <c r="E14" s="54" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="7" t="s">
@@ -8223,7 +9108,7 @@
       <c r="D15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="91" t="s">
+      <c r="E15" s="54" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -8249,7 +9134,7 @@
       <c r="D16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="91" t="s">
+      <c r="E16" s="54" t="s">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -8270,4 +9155,393 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.35"/>
+  <cols>
+    <col min="2" max="2" width="32.109375" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" customWidth="1"/>
+    <col min="5" max="5" width="32.21875" customWidth="1"/>
+    <col min="11" max="24" width="8.88671875" style="98"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="56.35" customHeight="1" thickBot="1">
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+    </row>
+    <row r="2" spans="1:24" s="1" customFormat="1" ht="11.35">
+      <c r="A2" s="92"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="106"/>
+    </row>
+    <row r="3" spans="1:24" s="1" customFormat="1" ht="70" customHeight="1">
+      <c r="A3" s="95" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="100" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="99" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
+      <c r="R3" s="106"/>
+      <c r="S3" s="106"/>
+      <c r="T3" s="106"/>
+      <c r="U3" s="106"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="106"/>
+    </row>
+    <row r="4" spans="1:24" s="1" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A4" s="96">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="101" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="97" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
+      <c r="U4" s="106"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="106"/>
+      <c r="X4" s="106"/>
+    </row>
+    <row r="5" spans="1:24" s="1" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A5" s="96">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="101" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="97" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
+      <c r="U5" s="106"/>
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
+      <c r="X5" s="106"/>
+    </row>
+    <row r="6" spans="1:24" s="1" customFormat="1" ht="22" customHeight="1">
+      <c r="A6" s="102">
+        <v>3</v>
+      </c>
+      <c r="B6" s="103" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="104" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="97" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="106"/>
+      <c r="Q6" s="106"/>
+      <c r="R6" s="106"/>
+      <c r="S6" s="106"/>
+      <c r="T6" s="106"/>
+      <c r="U6" s="106"/>
+      <c r="V6" s="106"/>
+      <c r="W6" s="106"/>
+      <c r="X6" s="106"/>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="98"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="98"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="98"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="98"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="98"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="98"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="98"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="98"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="98"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="98"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+    </row>
+    <row r="17" spans="6:10" s="98" customFormat="1">
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="105"/>
+    </row>
+    <row r="18" spans="6:10" s="98" customFormat="1">
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
+    </row>
+    <row r="19" spans="6:10" s="98" customFormat="1"/>
+    <row r="20" spans="6:10" s="98" customFormat="1"/>
+    <row r="21" spans="6:10" s="98" customFormat="1"/>
+    <row r="22" spans="6:10" s="98" customFormat="1"/>
+    <row r="23" spans="6:10" s="98" customFormat="1"/>
+    <row r="24" spans="6:10" s="98" customFormat="1"/>
+    <row r="25" spans="6:10" s="98" customFormat="1"/>
+    <row r="26" spans="6:10" s="98" customFormat="1"/>
+    <row r="27" spans="6:10" s="98" customFormat="1"/>
+    <row r="28" spans="6:10" s="98" customFormat="1"/>
+    <row r="29" spans="6:10" s="98" customFormat="1"/>
+    <row r="30" spans="6:10" s="98" customFormat="1"/>
+    <row r="31" spans="6:10" s="98" customFormat="1"/>
+    <row r="32" spans="6:10" s="98" customFormat="1"/>
+    <row r="33" s="98" customFormat="1"/>
+    <row r="34" s="98" customFormat="1"/>
+    <row r="35" s="98" customFormat="1"/>
+    <row r="36" s="98" customFormat="1"/>
+    <row r="37" s="98" customFormat="1"/>
+    <row r="38" s="98" customFormat="1"/>
+    <row r="39" s="98" customFormat="1"/>
+    <row r="40" s="98" customFormat="1"/>
+    <row r="41" s="98" customFormat="1"/>
+    <row r="42" s="98" customFormat="1"/>
+    <row r="43" s="98" customFormat="1"/>
+    <row r="44" s="98" customFormat="1"/>
+    <row r="45" s="98" customFormat="1"/>
+    <row r="46" s="98" customFormat="1"/>
+    <row r="47" s="98" customFormat="1"/>
+    <row r="48" s="98" customFormat="1"/>
+    <row r="49" s="98" customFormat="1"/>
+    <row r="50" s="98" customFormat="1"/>
+    <row r="51" s="98" customFormat="1"/>
+    <row r="52" s="98" customFormat="1"/>
+    <row r="53" s="98" customFormat="1"/>
+    <row r="54" s="98" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/design-document/ScreenClassManagement.xlsx
+++ b/design-document/ScreenClassManagement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22267" windowHeight="12653" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10547" tabRatio="833" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="01_Screen Layout" sheetId="4" r:id="rId1"/>
@@ -12,18 +12,19 @@
     <sheet name="03_Definition" sheetId="6" r:id="rId3"/>
     <sheet name="04_check Condition Monadic" sheetId="3" r:id="rId4"/>
     <sheet name="05_Check Condition" sheetId="2" r:id="rId5"/>
-    <sheet name="06_Mapping Class, Action" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'01_Screen Layout'!$A$1:$K$27</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'02_Item Definition'!$A$1:$N$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'03_Definition'!$A$1:$L$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'04_check Condition Monadic'!$A$1:$O$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'02_Item Definition'!$A$1:$K$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'03_Definition'!$A$1:$V$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'04_check Condition Monadic'!$A$1:$J$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'05_Check Condition'!$A$1:$H$16</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'01_Screen Layout'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'02_Item Definition'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'04_check Condition Monadic'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'05_Check Condition'!$1:$4</definedName>
+    <definedName name="SEARCH_RESULT1">#N/A</definedName>
+    <definedName name="SEARCH_RESULTLAST">#N/A</definedName>
     <definedName name="YAJI_MT_登録仕訳">#REF!</definedName>
     <definedName name="ああ">#REF!</definedName>
   </definedNames>
@@ -42,7 +43,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="O3" authorId="0" shapeId="0">
+    <comment ref="J3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="119">
   <si>
     <t>Dữ liệu do hệ thống tính toán và chuyền vào</t>
   </si>
@@ -92,9 +93,6 @@
   </si>
   <si>
     <t>Chủ Nhật</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -</t>
   </si>
   <si>
     <t>cbSaturday</t>
@@ -185,12 +183,6 @@
     <t>Processing on error</t>
   </si>
   <si>
-    <t>Người dùng nhập chữ</t>
-  </si>
-  <si>
-    <t>"Định dạng không hợp lệ"</t>
-  </si>
-  <si>
     <t>__</t>
   </si>
   <si>
@@ -204,39 +196,13 @@
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t>"Định dạng giờ không hợp lệ"</t>
-  </si>
-  <si>
     <t>Maximum value</t>
-  </si>
-  <si>
-    <t>minimum value</t>
   </si>
   <si>
     <t>Email
 address</t>
   </si>
   <si>
-    <t>Full-width
-Kana</t>
-  </si>
-  <si>
-    <t>Double-byte character</t>
-  </si>
-  <si>
-    <t>Half size
-Alphameric characters</t>
-  </si>
-  <si>
-    <t>Half size
-A number
-Symbol Yes</t>
-  </si>
-  <si>
-    <t>Half size
-A number</t>
-  </si>
-  <si>
     <t>Required</t>
   </si>
   <si>
@@ -253,12 +219,6 @@
   </si>
   <si>
     <t>IO</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>CV0011</t>
   </si>
   <si>
     <t>○</t>
@@ -268,33 +228,18 @@
     <t>text</t>
   </si>
   <si>
-    <t>CV0001</t>
-  </si>
-  <si>
     <t>checkbox</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>chọn ngày học</t>
   </si>
   <si>
     <t>input giờ kết thúc</t>
   </si>
   <si>
-    <t>CV0008</t>
-  </si>
-  <si>
     <t>input giờ học</t>
   </si>
   <si>
-    <t>K</t>
-  </si>
-  <si>
     <t>input tên lớp</t>
   </si>
   <si>
@@ -307,19 +252,10 @@
     <t>I/O/IO</t>
   </si>
   <si>
-    <t>Region</t>
-  </si>
-  <si>
     <t>Initial value</t>
   </si>
   <si>
-    <t>Code ID</t>
-  </si>
-  <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>Accuracy</t>
   </si>
   <si>
     <t>Length</t>
@@ -341,25 +277,7 @@
     <t xml:space="preserve">- Click vào icon                              </t>
   </si>
   <si>
-    <t>Thêm dòng</t>
-  </si>
-  <si>
     <t xml:space="preserve">-Chọn dòng cần xóa, click icon                              </t>
-  </si>
-  <si>
-    <t>Xóa dữ liệu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-Sau khi click "SAVE" dữ liệu hợp lệ được lưu xuống cơ sở dữ.                                   </t>
-  </si>
-  <si>
-    <t>Sau khi lưu dữ liệu thành công</t>
-  </si>
-  <si>
-    <t>Hệ thống lưu thông tin hợp lệ của hội viên mới vào cơ sở dữ liệu.</t>
-  </si>
-  <si>
-    <t>Lưu trữ dữ liêu</t>
   </si>
   <si>
     <t xml:space="preserve">Kiểm tra dữ liệu nhập vào (theo bảng điều kiện bảng chi tiết).
@@ -430,41 +348,101 @@
     <t>Action</t>
   </si>
   <si>
-    <t>DAO</t>
-  </si>
-  <si>
-    <t>BLO</t>
-  </si>
-  <si>
     <t>VIEW</t>
   </si>
   <si>
-    <t>Class.cs , DbConnect.cs</t>
-  </si>
-  <si>
-    <t>LoadClass.cs</t>
-  </si>
-  <si>
     <t>ClassScreen.xaml</t>
   </si>
   <si>
-    <t>Xóa thông tin lớp học</t>
-  </si>
-  <si>
-    <t>Lưu thông tin lớp học</t>
-  </si>
-  <si>
-    <t>SaveClass.cs</t>
-  </si>
-  <si>
-    <t>DeleteClass.cs</t>
+    <t>Dialog</t>
+  </si>
+  <si>
+    <t>Minimum value</t>
+  </si>
+  <si>
+    <t>1 &lt;= giờ học &lt;= 24</t>
+  </si>
+  <si>
+    <t>0 &lt;= giờ kết thúc &lt;= 24</t>
+  </si>
+  <si>
+    <t>Có ít nhất 1 buổi được chọn</t>
+  </si>
+  <si>
+    <t>length &gt; 0</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>AKD-MS002-E</t>
+  </si>
+  <si>
+    <t>{0}: Tên lớp</t>
+  </si>
+  <si>
+    <t>{0}: Giờ Học</t>
+  </si>
+  <si>
+    <t>{0}: Giờ Kết Thúc</t>
+  </si>
+  <si>
+    <t>3. Mapping Action and Class</t>
+  </si>
+  <si>
+    <t>DAO Layer</t>
+  </si>
+  <si>
+    <t>BLO Layer</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>Class_Model.cs, Student_Model.cs, Learn_Model.cs, AccsessDB_DAO.cs,   LoadClass.cs</t>
+  </si>
+  <si>
+    <t>SeachMemer_BLO</t>
+  </si>
+  <si>
+    <t>Class_Model.cs, Student_Model.cs, Learn_Model.cs, AccsessDB_DAO.cs, SaveClass_DAO.cs</t>
+  </si>
+  <si>
+    <t>Xóa class</t>
+  </si>
+  <si>
+    <t>Class_Model.cs, Student_Model.cs, Learn_Model.cs, AccsessDB_DAO.cs, DeleteClass_DAO.cs</t>
+  </si>
+  <si>
+    <t>Edit Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chọn dòng cần thay đổi dữ liệu, click "Save" hệ thống kiểm tra dữ liệu hợp lệ </t>
+  </si>
+  <si>
+    <t>Thêm lớp mới</t>
+  </si>
+  <si>
+    <t>Edit class</t>
+  </si>
+  <si>
+    <t>AKD-MS03-E</t>
+  </si>
+  <si>
+    <t>AKD-MS006-E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,7 +501,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -542,19 +520,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -568,14 +546,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="39">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -931,163 +903,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <left/>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1107,58 +951,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1179,34 +1002,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
@@ -1217,9 +1025,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -1231,20 +1036,37 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1254,7 +1076,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
@@ -1272,136 +1094,248 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="3"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2841,7 +2775,7 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="8260080" cy="2042160"/>
+    <xdr:ext cx="8157210" cy="2042160"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="23" name="Picture 1"/>
@@ -2864,8 +2798,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="53340" y="685800"/>
-          <a:ext cx="8260080" cy="2042160"/>
+          <a:off x="53340" y="1148715"/>
+          <a:ext cx="8157210" cy="2042160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2910,7 +2844,7 @@
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>518160</xdr:rowOff>
@@ -2925,7 +2859,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="15240"/>
-          <a:ext cx="11413067" cy="502920"/>
+          <a:ext cx="9719733" cy="502920"/>
           <a:chOff x="0" y="2"/>
           <a:chExt cx="1121" cy="52"/>
         </a:xfrm>
@@ -3580,120 +3514,6 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>541866</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>186266</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2182777" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2370666" y="2685626"/>
-          <a:ext cx="2182777" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>-Hiện</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> thông báo "Lưu thành công,"</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>414865</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3436197" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2336800" y="2685625"/>
-          <a:ext cx="3436197" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t> - Hệ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> thống sẽ load lại danh sách mới vừa được cập nhật.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -3835,9 +3655,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>541866</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>186266</xdr:rowOff>
+      <xdr:colOff>592668</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>160866</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2669962" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -3847,7 +3667,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2370666" y="2853266"/>
+          <a:off x="2683935" y="5621866"/>
           <a:ext cx="2669962" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3892,8 +3712,8 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:colOff>558802</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>414865</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3220112" cy="264560"/>
@@ -3904,7 +3724,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2336800" y="2853265"/>
+          <a:off x="2650069" y="5875865"/>
           <a:ext cx="3220112" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3952,13 +3772,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>25400</xdr:colOff>
-          <xdr:row>16</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>16933</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>194733</xdr:colOff>
-          <xdr:row>16</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>143933</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4015,8 +3835,8 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>541866</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:colOff>609602</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>186266</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3623300" cy="264560"/>
@@ -4027,7 +3847,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2370666" y="3020906"/>
+          <a:off x="2700869" y="6468533"/>
           <a:ext cx="3623300" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4072,8 +3892,8 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>550333</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>414865</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4300211" cy="444449"/>
@@ -4084,7 +3904,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2379133" y="3020905"/>
+          <a:off x="2700868" y="6697132"/>
           <a:ext cx="4300211" cy="444449"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4132,13 +3952,13 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>313267</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>16</xdr:row>
           <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>465667</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>16</xdr:row>
           <xdr:rowOff>127000</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4192,6 +4012,346 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>91252</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>20495</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2445925" cy="2400971"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15746119" y="2822962"/>
+          <a:ext cx="2445925" cy="2400971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>ID_Class</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Class_Name</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>+Start</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>_Time</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>+ End_Time</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>+ Moday</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>+ Tuesday</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>+Wednesday</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>+Thursday</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>+Friday</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>+ Saturday</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>+ Day_Create</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>+ Day_Update</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>+Delete_Flag</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>91252</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>647030</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2445925" cy="2189304"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15746119" y="5447630"/>
+          <a:ext cx="2445925" cy="2189304"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Class_Name</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>+Start</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>_Time</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>+ End_Time</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>+ Moday</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>+ Tuesday</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>+Wednesday</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>+Thursday</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>+Friday</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>+ Saturday</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>+ Day_Create</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>+ Day_Update</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>+Delete_Flag</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>626533</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>118532</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4365682" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2717800" y="4419599"/>
+          <a:ext cx="4365682" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Hệ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> thống lưu thay đổi xuống cơ sở dữ liệu.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Hiện thống báo "Lưu thành công" và load lại danh sách mới vừa thay đổi.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4205,8 +4365,8 @@
       <xdr:rowOff>49953</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1424093</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1666875</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>552873</xdr:rowOff>
     </xdr:to>
@@ -4220,7 +4380,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="49953"/>
-          <a:ext cx="11482493" cy="502920"/>
+          <a:ext cx="11352742" cy="502920"/>
           <a:chOff x="0" y="2"/>
           <a:chExt cx="1121" cy="52"/>
         </a:xfrm>
@@ -4870,7 +5030,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="15240" y="22860"/>
-          <a:ext cx="10957560" cy="502920"/>
+          <a:ext cx="11575627" cy="502920"/>
           <a:chOff x="0" y="2"/>
           <a:chExt cx="1121" cy="52"/>
         </a:xfrm>
@@ -5470,8 +5630,8 @@
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1685925</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>548640</xdr:rowOff>
     </xdr:to>
@@ -5485,7 +5645,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="45720"/>
-          <a:ext cx="15079980" cy="502920"/>
+          <a:ext cx="11337925" cy="502920"/>
           <a:chOff x="-1" y="6"/>
           <a:chExt cx="1121" cy="52"/>
         </a:xfrm>
@@ -5910,8 +6070,20 @@
                 <a:latin typeface="ＭＳ Ｐゴシック"/>
                 <a:ea typeface="ＭＳ Ｐゴシック"/>
               </a:rPr>
-              <a:t>Register worker</a:t>
+              <a:t>Class Management</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -6042,656 +6214,6 @@
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="23" name="Text Box 209"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="3" y="34"/>
-            <a:ext cx="154" cy="19"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="r" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>screen name</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2692400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>663787</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 199"/>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9177866" cy="663787"/>
-          <a:chOff x="0" y="2"/>
-          <a:chExt cx="1121" cy="52"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="Picture 200" descr="PTMS_docs_header"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect b="32468"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="0" y="2"/>
-            <a:ext cx="1121" cy="52"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Text Box 201"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="287" y="10"/>
-            <a:ext cx="274" cy="17"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Screen item definition</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="Text Box 202"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="565" y="11"/>
-            <a:ext cx="155" cy="20"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="r" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>system-name</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Text Box 203"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="727" y="9"/>
-            <a:ext cx="384" cy="17"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ Ｐゴシック"/>
-                <a:ea typeface="ＭＳ Ｐゴシック"/>
-              </a:rPr>
-              <a:t>Aidiko dojo's Member Management</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="Text Box 204"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="163" y="10"/>
-            <a:ext cx="122" cy="17"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ Ｐゴシック"/>
-                <a:ea typeface="ＭＳ Ｐゴシック"/>
-              </a:rPr>
-              <a:t>AKD</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Text Box 205"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="566" y="34"/>
-            <a:ext cx="155" cy="19"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="r" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Screen ID</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Text Box 206"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="161" y="34"/>
-            <a:ext cx="394" cy="19"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ Ｐゴシック"/>
-                <a:ea typeface="ＭＳ Ｐゴシック"/>
-              </a:rPr>
-              <a:t> Class Management</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Text Box 207"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="725" y="33"/>
-            <a:ext cx="393" cy="17"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ Ｐゴシック"/>
-                <a:ea typeface="ＭＳ Ｐゴシック"/>
-              </a:rPr>
-              <a:t>AKD006</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="Text Box 208"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="4" y="11"/>
-            <a:ext cx="154" cy="20"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="r" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Form number</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="Text Box 209"/>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -7026,7 +6548,7 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
@@ -7034,25 +6556,25 @@
     <col min="1" max="9" width="9" style="1"/>
     <col min="10" max="10" width="17.44140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="26.109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="0.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="0.33203125" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="14" width="9" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="55.5" customHeight="1">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -7067,462 +6589,361 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="25" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="25" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="25" customWidth="1"/>
-    <col min="5" max="5" width="7.77734375" style="25" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" style="25" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="25" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="7.77734375" style="25" customWidth="1"/>
-    <col min="10" max="11" width="9.44140625" style="25" customWidth="1"/>
-    <col min="12" max="12" width="7.6640625" style="25" customWidth="1"/>
-    <col min="13" max="13" width="29.77734375" style="25" customWidth="1"/>
-    <col min="14" max="14" width="1.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="3.6640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" style="18" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="13" style="18" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" style="18" customWidth="1"/>
+    <col min="10" max="10" width="29.6640625" style="18" customWidth="1"/>
+    <col min="11" max="11" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="55.5" customHeight="1"/>
-    <row r="2" spans="1:13" ht="18" customHeight="1">
-      <c r="A2" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>73</v>
+    <row r="1" spans="1:10" ht="55.5" customHeight="1"/>
+    <row r="2" spans="1:10" ht="18" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17.350000000000001" customHeight="1">
+    <row r="3" spans="1:10" ht="17.5" customHeight="1">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A12" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>72</v>
+        <v>25</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="32.700000000000003" customHeight="1">
+    <row r="4" spans="1:10" ht="32.700000000000003" customHeight="1">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="8">
+        <v>23</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7">
         <v>30</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>71</v>
+      <c r="F4" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17.350000000000001" customHeight="1">
+    <row r="5" spans="1:10" ht="17.5" customHeight="1">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>69</v>
+        <v>21</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="30"/>
+      <c r="I5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="17.350000000000001" customHeight="1">
+    <row r="6" spans="1:10" ht="17.5" customHeight="1">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J6" s="42"/>
-      <c r="K6" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>67</v>
+        <v>19</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="30"/>
+      <c r="I6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="30.85" customHeight="1">
-      <c r="A7" s="9">
+    <row r="7" spans="1:10" ht="31" customHeight="1">
+      <c r="A7" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="L7" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="M7" s="55" t="s">
-        <v>66</v>
+        <v>17</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="49" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1">
-      <c r="A8" s="9">
+    <row r="8" spans="1:10" ht="15" customHeight="1">
+      <c r="A8" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>65</v>
+        <v>15</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>1</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="M8" s="56"/>
+      <c r="F8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="50"/>
     </row>
-    <row r="9" spans="1:13" ht="30" customHeight="1">
-      <c r="A9" s="9">
+    <row r="9" spans="1:10" ht="30" customHeight="1">
+      <c r="A9" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="M9" s="56"/>
+        <v>13</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="50"/>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1">
-      <c r="A10" s="9">
+    <row r="10" spans="1:10" ht="15" customHeight="1">
+      <c r="A10" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>40</v>
+        <v>11</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="M10" s="56"/>
+        <v>1</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="50"/>
     </row>
-    <row r="11" spans="1:13" ht="17.350000000000001" customHeight="1">
+    <row r="11" spans="1:10" ht="17.5" customHeight="1">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="M11" s="56"/>
+        <v>9</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="50"/>
     </row>
-    <row r="12" spans="1:13" ht="37.35" customHeight="1">
+    <row r="12" spans="1:10" ht="37.35" customHeight="1">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="42"/>
-      <c r="K12" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="M12" s="56"/>
+        <v>7</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="30"/>
+      <c r="I12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="50"/>
     </row>
-    <row r="13" spans="1:13" ht="17.350000000000001" customHeight="1">
+    <row r="13" spans="1:10" ht="17.5" customHeight="1">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -7532,34 +6953,25 @@
       <c r="C13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J13" s="42"/>
-      <c r="K13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="M13" s="57"/>
+      <c r="D13" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="30"/>
+      <c r="I13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="51"/>
     </row>
-    <row r="14" spans="1:13" ht="34" customHeight="1">
+    <row r="14" spans="1:10" ht="34" customHeight="1">
       <c r="A14" s="5">
         <f>ROW()-2</f>
         <v>12</v>
@@ -7570,38 +6982,31 @@
       <c r="C14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>40</v>
+      <c r="D14" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>49</v>
       </c>
       <c r="G14" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="J14" s="42">
+        <v>1</v>
+      </c>
+      <c r="H14" s="30">
         <v>0</v>
       </c>
-      <c r="K14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>56</v>
+      <c r="I14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="M7:M13"/>
+    <mergeCell ref="J7:J13"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.43307086614173229" bottom="0.35433070866141736" header="0.39370078740157483" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7614,385 +7019,578 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:D18"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11:R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12.7"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="46"/>
-    <col min="3" max="3" width="9.77734375" style="46" customWidth="1"/>
-    <col min="4" max="10" width="8.88671875" style="46"/>
-    <col min="11" max="11" width="8.6640625" style="46" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="46"/>
+    <col min="1" max="2" width="8.88671875" style="33"/>
+    <col min="3" max="3" width="9.6640625" style="33" customWidth="1"/>
+    <col min="4" max="10" width="8.88671875" style="33"/>
+    <col min="11" max="11" width="8.6640625" style="33" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="33" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="33"/>
+    <col min="14" max="14" width="7.6640625" style="33" customWidth="1"/>
+    <col min="15" max="15" width="18.88671875" style="33" customWidth="1"/>
+    <col min="16" max="16" width="17.44140625" style="33" customWidth="1"/>
+    <col min="17" max="17" width="27.88671875" style="33" customWidth="1"/>
+    <col min="18" max="19" width="17.44140625" style="33" customWidth="1"/>
+    <col min="20" max="20" width="1.109375" style="33" customWidth="1"/>
+    <col min="21" max="22" width="17.44140625" style="33" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="A1" s="83" t="s">
-        <v>113</v>
+    <row r="1" spans="1:22" ht="15" customHeight="1">
+      <c r="A1" s="74" t="s">
+        <v>87</v>
       </c>
       <c r="B1" s="66"/>
-      <c r="C1" s="51" t="s">
-        <v>112</v>
+      <c r="C1" s="38" t="s">
+        <v>86</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="E1" s="66"/>
       <c r="F1" s="66" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="G1" s="66"/>
       <c r="H1" s="67" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="I1" s="67"/>
       <c r="J1" s="67"/>
       <c r="K1" s="67"/>
       <c r="L1" s="68"/>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="84" t="s">
-        <v>108</v>
+    <row r="2" spans="1:22" ht="15" customHeight="1">
+      <c r="A2" s="75" t="s">
+        <v>82</v>
       </c>
       <c r="B2" s="72"/>
       <c r="C2" s="69" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D2" s="70"/>
       <c r="E2" s="71"/>
       <c r="F2" s="72" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="G2" s="72"/>
       <c r="H2" s="69" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="I2" s="70"/>
       <c r="J2" s="70"/>
       <c r="K2" s="70"/>
-      <c r="L2" s="74"/>
+      <c r="L2" s="81"/>
     </row>
-    <row r="3" spans="1:12" ht="45.35" customHeight="1">
-      <c r="A3" s="85" t="s">
+    <row r="3" spans="1:22" ht="45.35" customHeight="1">
+      <c r="A3" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="77"/>
+      <c r="C3" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="80"/>
+    </row>
+    <row r="4" spans="1:22" ht="15" customHeight="1" thickBot="1">
+      <c r="A4" s="78" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="79"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="85"/>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="73"/>
+      <c r="B5" s="73"/>
+    </row>
+    <row r="6" spans="1:22" ht="13.35">
+      <c r="A6" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="N6" s="44" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="N8" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" s="89" t="s">
+        <v>88</v>
+      </c>
+      <c r="P8" s="91" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="92"/>
+      <c r="T8" s="93"/>
+      <c r="U8" s="89" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="63" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="73"/>
+      <c r="V8" s="89" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="87" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="78"/>
+    <row r="9" spans="1:22" ht="43.35" customHeight="1">
+      <c r="A9" s="35">
+        <v>1</v>
+      </c>
+      <c r="B9" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="T9" s="93"/>
+      <c r="U9" s="90"/>
+      <c r="V9" s="90"/>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="89"/>
-      <c r="B5" s="89"/>
+    <row r="10" spans="1:22" ht="36.85" customHeight="1">
+      <c r="E10" s="37"/>
+      <c r="N10" s="46">
+        <v>1</v>
+      </c>
+      <c r="O10" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" s="97" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q10" s="98"/>
+      <c r="R10" s="99"/>
+      <c r="S10" s="100" t="s">
+        <v>107</v>
+      </c>
+      <c r="T10" s="101"/>
+      <c r="U10" s="102" t="s">
+        <v>109</v>
+      </c>
+      <c r="V10" s="102" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" ht="13.35">
-      <c r="A6" s="75" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
+    <row r="11" spans="1:22" ht="36.85" customHeight="1">
+      <c r="A11" s="82" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="N11" s="94">
+        <v>2</v>
+      </c>
+      <c r="O11" s="111" t="s">
+        <v>113</v>
+      </c>
+      <c r="P11" s="114" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q11" s="115"/>
+      <c r="R11" s="116"/>
+      <c r="S11" s="105"/>
+      <c r="T11" s="106"/>
+      <c r="U11" s="103"/>
+      <c r="V11" s="103"/>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="79" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
+    <row r="12" spans="1:22" ht="37.35" customHeight="1">
+      <c r="N12" s="95"/>
+      <c r="O12" s="112"/>
+      <c r="P12" s="117"/>
+      <c r="Q12" s="118"/>
+      <c r="R12" s="119"/>
+      <c r="S12" s="107"/>
+      <c r="T12" s="108"/>
+      <c r="U12" s="103"/>
+      <c r="V12" s="103"/>
     </row>
-    <row r="9" spans="1:12" ht="86.7" customHeight="1">
-      <c r="A9" s="48">
-        <v>1</v>
-      </c>
-      <c r="B9" s="64" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="81" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
+    <row r="13" spans="1:22" ht="12.7" customHeight="1">
+      <c r="A13" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="117"/>
+      <c r="Q13" s="118"/>
+      <c r="R13" s="119"/>
+      <c r="S13" s="107"/>
+      <c r="T13" s="108"/>
+      <c r="U13" s="103"/>
+      <c r="V13" s="103"/>
     </row>
-    <row r="10" spans="1:12">
-      <c r="E10" s="50"/>
+    <row r="14" spans="1:22" ht="31.5" customHeight="1">
+      <c r="A14" s="35">
+        <v>1</v>
+      </c>
+      <c r="B14" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="56"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="113"/>
+      <c r="P14" s="120"/>
+      <c r="Q14" s="121"/>
+      <c r="R14" s="122"/>
+      <c r="S14" s="107"/>
+      <c r="T14" s="108"/>
+      <c r="U14" s="103"/>
+      <c r="V14" s="103"/>
     </row>
-    <row r="11" spans="1:12" ht="13.35">
-      <c r="A11" s="75" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
+    <row r="15" spans="1:22" ht="39.35" customHeight="1">
+      <c r="A15" s="35">
+        <v>2</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="56"/>
+      <c r="N15" s="94">
+        <v>3</v>
+      </c>
+      <c r="O15" s="111" t="s">
+        <v>111</v>
+      </c>
+      <c r="P15" s="114" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q15" s="115"/>
+      <c r="R15" s="116"/>
+      <c r="S15" s="107"/>
+      <c r="T15" s="108"/>
+      <c r="U15" s="103"/>
+      <c r="V15" s="103"/>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="79" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
+    <row r="16" spans="1:22" ht="52" customHeight="1">
+      <c r="A16" s="34">
+        <v>3</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="56"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="120"/>
+      <c r="Q16" s="121"/>
+      <c r="R16" s="122"/>
+      <c r="S16" s="109"/>
+      <c r="T16" s="110"/>
+      <c r="U16" s="103"/>
+      <c r="V16" s="103"/>
     </row>
-    <row r="14" spans="1:12" ht="31.5" customHeight="1">
-      <c r="A14" s="48">
-        <v>1</v>
-      </c>
-      <c r="B14" s="64" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="62"/>
+    <row r="17" spans="1:22" ht="64.7" customHeight="1">
+      <c r="A17" s="34">
+        <v>4</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="56"/>
+      <c r="N17" s="94">
+        <v>4</v>
+      </c>
+      <c r="O17" s="111" t="s">
+        <v>115</v>
+      </c>
+      <c r="P17" s="114" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q17" s="115"/>
+      <c r="R17" s="116"/>
+      <c r="S17" s="105"/>
+      <c r="T17" s="106"/>
+      <c r="U17" s="103"/>
+      <c r="V17" s="103"/>
     </row>
-    <row r="15" spans="1:12" ht="15.85" customHeight="1">
-      <c r="A15" s="48">
-        <v>2</v>
-      </c>
-      <c r="B15" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="62"/>
+    <row r="18" spans="1:22" ht="64.7" customHeight="1">
+      <c r="N18" s="95"/>
+      <c r="O18" s="112"/>
+      <c r="P18" s="117"/>
+      <c r="Q18" s="118"/>
+      <c r="R18" s="119"/>
+      <c r="S18" s="107"/>
+      <c r="T18" s="108"/>
+      <c r="U18" s="103"/>
+      <c r="V18" s="103"/>
     </row>
-    <row r="16" spans="1:12" ht="64.7" customHeight="1">
-      <c r="A16" s="47">
-        <v>3</v>
-      </c>
-      <c r="B16" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="62"/>
+    <row r="19" spans="1:22" ht="15.35" customHeight="1">
+      <c r="N19" s="95"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="117"/>
+      <c r="Q19" s="118"/>
+      <c r="R19" s="119"/>
+      <c r="S19" s="107"/>
+      <c r="T19" s="108"/>
+      <c r="U19" s="103"/>
+      <c r="V19" s="103"/>
     </row>
-    <row r="17" spans="1:12" ht="64.7" customHeight="1">
-      <c r="A17" s="47">
-        <v>4</v>
-      </c>
-      <c r="B17" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="62"/>
+    <row r="20" spans="1:22" ht="15.35" customHeight="1">
+      <c r="N20" s="95"/>
+      <c r="O20" s="112"/>
+      <c r="P20" s="117"/>
+      <c r="Q20" s="118"/>
+      <c r="R20" s="119"/>
+      <c r="S20" s="107"/>
+      <c r="T20" s="108"/>
+      <c r="U20" s="103"/>
+      <c r="V20" s="103"/>
     </row>
-    <row r="18" spans="1:12" ht="64.7" customHeight="1">
-      <c r="A18" s="47">
-        <v>5</v>
-      </c>
-      <c r="B18" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="62"/>
+    <row r="21" spans="1:22" ht="11.35" customHeight="1">
+      <c r="N21" s="95"/>
+      <c r="O21" s="112"/>
+      <c r="P21" s="117"/>
+      <c r="Q21" s="118"/>
+      <c r="R21" s="119"/>
+      <c r="S21" s="107"/>
+      <c r="T21" s="108"/>
+      <c r="U21" s="103"/>
+      <c r="V21" s="103"/>
     </row>
-    <row r="21" spans="1:12" ht="11.35" customHeight="1"/>
-    <row r="22" spans="1:12" ht="15" customHeight="1"/>
-    <row r="23" spans="1:12" ht="15" customHeight="1"/>
-    <row r="24" spans="1:12" ht="13.35">
-      <c r="A24" s="90"/>
-      <c r="B24" s="91"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="91"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="91"/>
+    <row r="22" spans="1:22" ht="14.7" customHeight="1">
+      <c r="A22" s="73"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="113"/>
+      <c r="P22" s="120"/>
+      <c r="Q22" s="121"/>
+      <c r="R22" s="122"/>
+      <c r="S22" s="109"/>
+      <c r="T22" s="110"/>
+      <c r="U22" s="104"/>
+      <c r="V22" s="104"/>
     </row>
-    <row r="25" spans="1:12" ht="13.35">
-      <c r="A25" s="90"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="91"/>
+    <row r="23" spans="1:22">
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="90"/>
-      <c r="B26" s="90"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="90"/>
+    <row r="24" spans="1:22">
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="48"/>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="89"/>
-      <c r="B27" s="89"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="89"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="89"/>
+    <row r="25" spans="1:22">
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
     </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="89"/>
-      <c r="B28" s="89"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="89"/>
+    <row r="26" spans="1:22">
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="48"/>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="89"/>
-      <c r="B29" s="89"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="89"/>
+    <row r="27" spans="1:22">
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="48"/>
+      <c r="V27" s="48"/>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="89"/>
-      <c r="B30" s="89"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="89"/>
+    <row r="28" spans="1:22">
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="48"/>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A29:K29"/>
-    <mergeCell ref="A30:K30"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="A26:K26"/>
+  <mergeCells count="52">
+    <mergeCell ref="V10:V22"/>
+    <mergeCell ref="S11:T16"/>
+    <mergeCell ref="O11:O14"/>
+    <mergeCell ref="P11:R14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:R16"/>
+    <mergeCell ref="O17:O22"/>
+    <mergeCell ref="P17:R22"/>
+    <mergeCell ref="S17:T22"/>
+    <mergeCell ref="U10:U22"/>
+    <mergeCell ref="N11:N14"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="N17:N22"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="A22:K22"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -8002,8 +7600,6 @@
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="C4:L4"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:L16"/>
     <mergeCell ref="E13:L13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="A11:C11"/>
@@ -8017,21 +7613,25 @@
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:L18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:L17"/>
     <mergeCell ref="E14:L14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="E15:L15"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:L17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:L16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="85" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="47" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader xml:space="preserve">&amp;L&amp;F&amp;RPTMS-BD
 </oddHeader>
     <oddFooter>&amp;LCopyright(c) 2008 HJ All rights reserved.&amp;R3-&amp;P</oddFooter>
   </headerFooter>
+  <colBreaks count="2" manualBreakCount="2">
+    <brk id="12" max="21" man="1"/>
+    <brk id="22" max="26" man="1"/>
+  </colBreaks>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8045,13 +7645,13 @@
                   <from>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>25400</xdr:colOff>
-                    <xdr:row>16</xdr:row>
+                    <xdr:row>15</xdr:row>
                     <xdr:rowOff>16933</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>194733</xdr:colOff>
-                    <xdr:row>16</xdr:row>
+                    <xdr:row>15</xdr:row>
                     <xdr:rowOff>143933</xdr:rowOff>
                   </to>
                 </anchor>
@@ -8067,13 +7667,13 @@
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>313267</xdr:colOff>
-                    <xdr:row>17</xdr:row>
+                    <xdr:row>16</xdr:row>
                     <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>465667</xdr:colOff>
-                    <xdr:row>17</xdr:row>
+                    <xdr:row>16</xdr:row>
                     <xdr:rowOff>127000</xdr:rowOff>
                   </to>
                 </anchor>
@@ -8089,10 +7689,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection sqref="A1:XFD15"/>
+    <sheetView view="pageBreakPreview" topLeftCell="B2" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
@@ -8100,560 +7700,391 @@
     <col min="1" max="1" width="4.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="7" style="1" customWidth="1"/>
-    <col min="6" max="12" width="6.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.77734375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="1" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="7" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="12.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20" style="18" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="1" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="56.35" customHeight="1">
-      <c r="L1" s="41"/>
-      <c r="O1" s="41"/>
+    <row r="1" spans="1:10" ht="56.5" customHeight="1">
+      <c r="G1" s="29"/>
+      <c r="J1" s="29"/>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="38"/>
-      <c r="O2" s="37"/>
+    <row r="2" spans="1:10">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="91" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="92"/>
+      <c r="J2" s="93"/>
     </row>
-    <row r="3" spans="1:15" ht="70" customHeight="1">
-      <c r="A3" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="14" t="s">
+    <row r="3" spans="1:10" ht="24" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="14" t="s">
+      <c r="C3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="J3" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" ht="22.5" customHeight="1">
+    <row r="4" spans="1:10" ht="22.5" customHeight="1">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="N4" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="28" t="s">
-        <v>42</v>
+        <v>25</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="22.5" customHeight="1">
+    <row r="5" spans="1:10" ht="22.5" customHeight="1">
       <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="8">
+        <v>23</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="7">
         <v>30</v>
       </c>
-      <c r="M5" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="N5" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="28" t="s">
-        <v>42</v>
+      <c r="H5" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="22.5" customHeight="1">
+    <row r="6" spans="1:10" ht="22.5" customHeight="1">
       <c r="A6" s="5">
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="M6" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="N6" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="22.5" customHeight="1">
+    <row r="7" spans="1:10" ht="22.5" customHeight="1">
       <c r="A7" s="5">
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="M7" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="N7" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="28" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="8" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A8" s="9">
+    <row r="8" spans="1:10" ht="22.5" customHeight="1">
+      <c r="A8" s="8">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="M8" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="N8" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="O8" s="28" t="s">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A9" s="9">
+    <row r="9" spans="1:10" ht="22.5" customHeight="1">
+      <c r="A9" s="8">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="M9" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="N9" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A10" s="9">
+    <row r="10" spans="1:10" ht="22.5" customHeight="1">
+      <c r="A10" s="8">
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="M10" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="N10" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>40</v>
+        <v>13</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A11" s="9">
+    <row r="11" spans="1:10" ht="22.5" customHeight="1">
+      <c r="A11" s="8">
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="M11" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="N11" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>40</v>
+      <c r="E11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="22.5" customHeight="1">
+    <row r="12" spans="1:10" ht="22.5" customHeight="1">
       <c r="A12" s="5">
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="M12" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="N12" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>40</v>
+      <c r="E12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="22.5" customHeight="1">
+    <row r="13" spans="1:10" ht="22.5" customHeight="1">
       <c r="A13" s="5">
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="M13" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="N13" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>40</v>
+      <c r="E13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="22.5" customHeight="1">
+    <row r="14" spans="1:10" ht="22.5" customHeight="1">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -8663,44 +8094,29 @@
       <c r="C14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="M14" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="N14" s="53" t="s">
+      <c r="D14" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="8" t="s">
-        <v>40</v>
+      <c r="J14" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="22.5" customHeight="1">
+    <row r="15" spans="1:10" ht="22.5" customHeight="1">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -8710,44 +8126,32 @@
       <c r="C15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L15" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="M15" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="N15" s="53" t="s">
+      <c r="D15" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="O15" s="8" t="s">
+      <c r="J15" s="7" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H2:J2"/>
+  </mergeCells>
   <pageMargins left="0.34" right="0.21" top="0.36" bottom="0.44" header="0.56000000000000005" footer="0.28999999999999998"/>
   <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -8765,8 +8169,8 @@
   </sheetPr>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D6" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
@@ -8775,64 +8179,64 @@
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="36.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.44140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="1" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="25" customFormat="1" ht="56.35" customHeight="1">
-      <c r="L1" s="26"/>
-      <c r="O1" s="26"/>
+    <row r="1" spans="1:15" s="18" customFormat="1" ht="56.5" customHeight="1">
+      <c r="L1" s="19"/>
+      <c r="O1" s="19"/>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="20"/>
+    <row r="2" spans="1:15" ht="15" customHeight="1">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="123" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="125"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="16"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="128"/>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="15" t="s">
+    <row r="4" spans="1:15" ht="18" customHeight="1">
+      <c r="A4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="E4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="F4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="G4" s="10" t="s">
         <v>28</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1">
@@ -8840,22 +8244,22 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="40" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>27</v>
+      <c r="G5" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>1</v>
@@ -8866,22 +8270,22 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>25</v>
+        <v>96</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>1</v>
@@ -8892,22 +8296,22 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>23</v>
+        <v>94</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="132" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>1</v>
@@ -8918,126 +8322,112 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>21</v>
+        <v>93</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="133"/>
+      <c r="G8" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="30" customHeight="1">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="D9" s="129" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="134" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="30" customHeight="1">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="D10" s="130"/>
+      <c r="E10" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="135"/>
+      <c r="G10" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="30" customHeight="1">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="D11" s="130"/>
+      <c r="E11" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="135"/>
+      <c r="G11" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="30" customHeight="1">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="D12" s="130"/>
+      <c r="E12" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="135"/>
+      <c r="G12" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>1</v>
@@ -9048,48 +8438,40 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="D13" s="130"/>
+      <c r="E13" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="135"/>
+      <c r="G13" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="59.35" customHeight="1">
+    <row r="14" spans="1:15" ht="59.5" customHeight="1">
       <c r="A14" s="5">
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>9</v>
+      <c r="D14" s="130"/>
+      <c r="E14" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="135"/>
+      <c r="G14" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>1</v>
@@ -9105,17 +8487,13 @@
       <c r="C15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>6</v>
+      <c r="D15" s="131"/>
+      <c r="E15" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="136"/>
+      <c r="G15" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>1</v>
@@ -9134,414 +8512,31 @@
       <c r="D16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="54" t="s">
+      <c r="E16" s="40" t="s">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>4</v>
+      <c r="G16" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E2:H3"/>
+    <mergeCell ref="D9:D15"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F15"/>
+  </mergeCells>
   <pageMargins left="0.34" right="0.21" top="0.36" bottom="0.44" header="0.56000000000000005" footer="0.28999999999999998"/>
-  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="93" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;9Copyright(c) 2007 JACIC All rights reserved.&amp;R5-&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X54"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.35"/>
-  <cols>
-    <col min="2" max="2" width="32.109375" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" customWidth="1"/>
-    <col min="5" max="5" width="32.21875" customWidth="1"/>
-    <col min="11" max="24" width="8.88671875" style="98"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="56.35" customHeight="1" thickBot="1">
-      <c r="A1" s="41"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
-    </row>
-    <row r="2" spans="1:24" s="1" customFormat="1" ht="11.35">
-      <c r="A2" s="92"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
-    </row>
-    <row r="3" spans="1:24" s="1" customFormat="1" ht="70" customHeight="1">
-      <c r="A3" s="95" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="100" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="100" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" s="99" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="106"/>
-      <c r="R3" s="106"/>
-      <c r="S3" s="106"/>
-      <c r="T3" s="106"/>
-      <c r="U3" s="106"/>
-      <c r="V3" s="106"/>
-      <c r="W3" s="106"/>
-      <c r="X3" s="106"/>
-    </row>
-    <row r="4" spans="1:24" s="1" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A4" s="96">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="101" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="97" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="106"/>
-      <c r="Q4" s="106"/>
-      <c r="R4" s="106"/>
-      <c r="S4" s="106"/>
-      <c r="T4" s="106"/>
-      <c r="U4" s="106"/>
-      <c r="V4" s="106"/>
-      <c r="W4" s="106"/>
-      <c r="X4" s="106"/>
-    </row>
-    <row r="5" spans="1:24" s="1" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A5" s="96">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="101" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="97" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="106"/>
-      <c r="T5" s="106"/>
-      <c r="U5" s="106"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
-      <c r="X5" s="106"/>
-    </row>
-    <row r="6" spans="1:24" s="1" customFormat="1" ht="22" customHeight="1">
-      <c r="A6" s="102">
-        <v>3</v>
-      </c>
-      <c r="B6" s="103" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="104" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="97" t="s">
-        <v>120</v>
-      </c>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="106"/>
-      <c r="N6" s="106"/>
-      <c r="O6" s="106"/>
-      <c r="P6" s="106"/>
-      <c r="Q6" s="106"/>
-      <c r="R6" s="106"/>
-      <c r="S6" s="106"/>
-      <c r="T6" s="106"/>
-      <c r="U6" s="106"/>
-      <c r="V6" s="106"/>
-      <c r="W6" s="106"/>
-      <c r="X6" s="106"/>
-    </row>
-    <row r="7" spans="1:24">
-      <c r="A7" s="98"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="A8" s="98"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="A9" s="98"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-    </row>
-    <row r="10" spans="1:24">
-      <c r="A10" s="98"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-    </row>
-    <row r="11" spans="1:24">
-      <c r="A11" s="98"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
-    </row>
-    <row r="12" spans="1:24">
-      <c r="A12" s="98"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="105"/>
-    </row>
-    <row r="13" spans="1:24">
-      <c r="A13" s="98"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
-    </row>
-    <row r="14" spans="1:24">
-      <c r="A14" s="98"/>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="105"/>
-      <c r="J14" s="105"/>
-    </row>
-    <row r="15" spans="1:24">
-      <c r="A15" s="98"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="105"/>
-    </row>
-    <row r="16" spans="1:24">
-      <c r="A16" s="98"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="105"/>
-    </row>
-    <row r="17" spans="6:10" s="98" customFormat="1">
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="105"/>
-    </row>
-    <row r="18" spans="6:10" s="98" customFormat="1">
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="105"/>
-    </row>
-    <row r="19" spans="6:10" s="98" customFormat="1"/>
-    <row r="20" spans="6:10" s="98" customFormat="1"/>
-    <row r="21" spans="6:10" s="98" customFormat="1"/>
-    <row r="22" spans="6:10" s="98" customFormat="1"/>
-    <row r="23" spans="6:10" s="98" customFormat="1"/>
-    <row r="24" spans="6:10" s="98" customFormat="1"/>
-    <row r="25" spans="6:10" s="98" customFormat="1"/>
-    <row r="26" spans="6:10" s="98" customFormat="1"/>
-    <row r="27" spans="6:10" s="98" customFormat="1"/>
-    <row r="28" spans="6:10" s="98" customFormat="1"/>
-    <row r="29" spans="6:10" s="98" customFormat="1"/>
-    <row r="30" spans="6:10" s="98" customFormat="1"/>
-    <row r="31" spans="6:10" s="98" customFormat="1"/>
-    <row r="32" spans="6:10" s="98" customFormat="1"/>
-    <row r="33" s="98" customFormat="1"/>
-    <row r="34" s="98" customFormat="1"/>
-    <row r="35" s="98" customFormat="1"/>
-    <row r="36" s="98" customFormat="1"/>
-    <row r="37" s="98" customFormat="1"/>
-    <row r="38" s="98" customFormat="1"/>
-    <row r="39" s="98" customFormat="1"/>
-    <row r="40" s="98" customFormat="1"/>
-    <row r="41" s="98" customFormat="1"/>
-    <row r="42" s="98" customFormat="1"/>
-    <row r="43" s="98" customFormat="1"/>
-    <row r="44" s="98" customFormat="1"/>
-    <row r="45" s="98" customFormat="1"/>
-    <row r="46" s="98" customFormat="1"/>
-    <row r="47" s="98" customFormat="1"/>
-    <row r="48" s="98" customFormat="1"/>
-    <row r="49" s="98" customFormat="1"/>
-    <row r="50" s="98" customFormat="1"/>
-    <row r="51" s="98" customFormat="1"/>
-    <row r="52" s="98" customFormat="1"/>
-    <row r="53" s="98" customFormat="1"/>
-    <row r="54" s="98" customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/design-document/ScreenClassManagement.xlsx
+++ b/design-document/ScreenClassManagement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10547" tabRatio="833" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10547" tabRatio="833"/>
   </bookViews>
   <sheets>
     <sheet name="01_Screen Layout" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="05_Check Condition" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'01_Screen Layout'!$A$1:$K$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'01_Screen Layout'!$A$1:$N$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'02_Item Definition'!$A$1:$K$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'03_Definition'!$A$1:$V$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'04_check Condition Monadic'!$A$1:$J$15</definedName>
@@ -1076,6 +1076,195 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1085,15 +1274,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1105,189 +1288,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2118,7 +2118,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="15240"/>
-          <a:ext cx="9491133" cy="502920"/>
+          <a:ext cx="8932333" cy="502920"/>
           <a:chOff x="0" y="2"/>
           <a:chExt cx="1121" cy="52"/>
         </a:xfrm>
@@ -2768,17 +2768,22 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50801</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="8157210" cy="2042160"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>880532</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>131234</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 1"/>
+        <xdr:cNvPr id="24" name="Picture 23"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2791,46 +2796,77 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="53340" y="1148715"/>
-          <a:ext cx="8157210" cy="2042160"/>
+          <a:off x="990599" y="753534"/>
+          <a:ext cx="7391400" cy="5981700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>313267</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>59267</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>821266</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rectangle 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="999067" y="762000"/>
+          <a:ext cx="7323666" cy="5969000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6547,15 +6583,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
   <cols>
     <col min="1" max="9" width="9" style="1"/>
     <col min="10" max="10" width="17.44140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.77734375" style="1" customWidth="1"/>
     <col min="12" max="12" width="0.33203125" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="14" width="9" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
@@ -7044,95 +7080,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="66"/>
+      <c r="B1" s="88"/>
       <c r="C1" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66" t="s">
+      <c r="E1" s="88"/>
+      <c r="F1" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="66"/>
-      <c r="H1" s="67" t="s">
+      <c r="G1" s="88"/>
+      <c r="H1" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="68"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="113"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="69" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="72" t="s">
+      <c r="D2" s="99"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="69" t="s">
+      <c r="G2" s="90"/>
+      <c r="H2" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="81"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="100"/>
     </row>
     <row r="3" spans="1:22" ht="45.35" customHeight="1">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="57" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="80"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="97"/>
     </row>
     <row r="4" spans="1:22" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="85"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="104"/>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="73"/>
-      <c r="B5" s="73"/>
+      <c r="A5" s="86"/>
+      <c r="B5" s="86"/>
     </row>
     <row r="6" spans="1:22" ht="13.35">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
       <c r="N6" s="44" t="s">
         <v>102</v>
       </c>
@@ -7141,38 +7177,38 @@
       <c r="A8" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="64" t="s">
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="N8" s="89" t="s">
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="N8" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="O8" s="89" t="s">
+      <c r="O8" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="P8" s="91" t="s">
+      <c r="P8" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="Q8" s="92"/>
-      <c r="R8" s="92"/>
-      <c r="S8" s="92"/>
-      <c r="T8" s="93"/>
-      <c r="U8" s="89" t="s">
+      <c r="Q8" s="84"/>
+      <c r="R8" s="84"/>
+      <c r="S8" s="84"/>
+      <c r="T8" s="85"/>
+      <c r="U8" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="V8" s="89" t="s">
+      <c r="V8" s="81" t="s">
         <v>89</v>
       </c>
     </row>
@@ -7180,34 +7216,34 @@
       <c r="A9" s="35">
         <v>1</v>
       </c>
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="62" t="s">
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="110" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="91" t="s">
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="Q9" s="92"/>
+      <c r="Q9" s="84"/>
       <c r="R9" s="45"/>
-      <c r="S9" s="91" t="s">
+      <c r="S9" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="T9" s="93"/>
-      <c r="U9" s="90"/>
-      <c r="V9" s="90"/>
+      <c r="T9" s="85"/>
+      <c r="U9" s="82"/>
+      <c r="V9" s="82"/>
     </row>
     <row r="10" spans="1:22" ht="36.85" customHeight="1">
       <c r="E10" s="37"/>
@@ -7217,277 +7253,277 @@
       <c r="O10" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="P10" s="97" t="s">
+      <c r="P10" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="Q10" s="98"/>
-      <c r="R10" s="99"/>
-      <c r="S10" s="100" t="s">
+      <c r="Q10" s="77"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="T10" s="101"/>
-      <c r="U10" s="102" t="s">
+      <c r="T10" s="80"/>
+      <c r="U10" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="V10" s="102" t="s">
+      <c r="V10" s="52" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="36.85" customHeight="1">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="N11" s="94">
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="N11" s="73">
         <v>2</v>
       </c>
-      <c r="O11" s="111" t="s">
+      <c r="O11" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="P11" s="114" t="s">
+      <c r="P11" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="Q11" s="115"/>
-      <c r="R11" s="116"/>
-      <c r="S11" s="105"/>
-      <c r="T11" s="106"/>
-      <c r="U11" s="103"/>
-      <c r="V11" s="103"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53"/>
     </row>
     <row r="12" spans="1:22" ht="37.35" customHeight="1">
-      <c r="N12" s="95"/>
-      <c r="O12" s="112"/>
-      <c r="P12" s="117"/>
-      <c r="Q12" s="118"/>
-      <c r="R12" s="119"/>
-      <c r="S12" s="107"/>
-      <c r="T12" s="108"/>
-      <c r="U12" s="103"/>
-      <c r="V12" s="103"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
     </row>
     <row r="13" spans="1:22" ht="12.7" customHeight="1">
       <c r="A13" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="64" t="s">
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="112"/>
-      <c r="P13" s="117"/>
-      <c r="Q13" s="118"/>
-      <c r="R13" s="119"/>
-      <c r="S13" s="107"/>
-      <c r="T13" s="108"/>
-      <c r="U13" s="103"/>
-      <c r="V13" s="103"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="106"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
     </row>
     <row r="14" spans="1:22" ht="31.5" customHeight="1">
       <c r="A14" s="35">
         <v>1</v>
       </c>
-      <c r="B14" s="86" t="s">
+      <c r="B14" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="57" t="s">
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="56"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="113"/>
-      <c r="P14" s="120"/>
-      <c r="Q14" s="121"/>
-      <c r="R14" s="122"/>
-      <c r="S14" s="107"/>
-      <c r="T14" s="108"/>
-      <c r="U14" s="103"/>
-      <c r="V14" s="103"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="118"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="72"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
     </row>
     <row r="15" spans="1:22" ht="39.35" customHeight="1">
       <c r="A15" s="35">
         <v>2</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="119" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="61" t="s">
+      <c r="C15" s="120"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="122" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="56"/>
-      <c r="N15" s="94">
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="118"/>
+      <c r="N15" s="73">
         <v>3</v>
       </c>
-      <c r="O15" s="111" t="s">
+      <c r="O15" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="P15" s="114" t="s">
+      <c r="P15" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="Q15" s="115"/>
-      <c r="R15" s="116"/>
-      <c r="S15" s="107"/>
-      <c r="T15" s="108"/>
-      <c r="U15" s="103"/>
-      <c r="V15" s="103"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
     </row>
     <row r="16" spans="1:22" ht="52" customHeight="1">
       <c r="A16" s="34">
         <v>3</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="54" t="s">
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="117" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="56"/>
-      <c r="N16" s="96"/>
-      <c r="O16" s="113"/>
-      <c r="P16" s="120"/>
-      <c r="Q16" s="121"/>
-      <c r="R16" s="122"/>
-      <c r="S16" s="109"/>
-      <c r="T16" s="110"/>
-      <c r="U16" s="103"/>
-      <c r="V16" s="103"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="118"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="60"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
     </row>
     <row r="17" spans="1:22" ht="64.7" customHeight="1">
       <c r="A17" s="34">
         <v>4</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="115" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="54" t="s">
+      <c r="C17" s="116"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="56"/>
-      <c r="N17" s="94">
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="118"/>
+      <c r="N17" s="73">
         <v>4</v>
       </c>
-      <c r="O17" s="111" t="s">
+      <c r="O17" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="P17" s="114" t="s">
+      <c r="P17" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="Q17" s="115"/>
-      <c r="R17" s="116"/>
-      <c r="S17" s="105"/>
-      <c r="T17" s="106"/>
-      <c r="U17" s="103"/>
-      <c r="V17" s="103"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="53"/>
     </row>
     <row r="18" spans="1:22" ht="64.7" customHeight="1">
-      <c r="N18" s="95"/>
-      <c r="O18" s="112"/>
-      <c r="P18" s="117"/>
-      <c r="Q18" s="118"/>
-      <c r="R18" s="119"/>
-      <c r="S18" s="107"/>
-      <c r="T18" s="108"/>
-      <c r="U18" s="103"/>
-      <c r="V18" s="103"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="58"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="53"/>
     </row>
     <row r="19" spans="1:22" ht="15.35" customHeight="1">
-      <c r="N19" s="95"/>
-      <c r="O19" s="112"/>
-      <c r="P19" s="117"/>
-      <c r="Q19" s="118"/>
-      <c r="R19" s="119"/>
-      <c r="S19" s="107"/>
-      <c r="T19" s="108"/>
-      <c r="U19" s="103"/>
-      <c r="V19" s="103"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="69"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="58"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="53"/>
     </row>
     <row r="20" spans="1:22" ht="15.35" customHeight="1">
-      <c r="N20" s="95"/>
-      <c r="O20" s="112"/>
-      <c r="P20" s="117"/>
-      <c r="Q20" s="118"/>
-      <c r="R20" s="119"/>
-      <c r="S20" s="107"/>
-      <c r="T20" s="108"/>
-      <c r="U20" s="103"/>
-      <c r="V20" s="103"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="58"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
     </row>
     <row r="21" spans="1:22" ht="11.35" customHeight="1">
-      <c r="N21" s="95"/>
-      <c r="O21" s="112"/>
-      <c r="P21" s="117"/>
-      <c r="Q21" s="118"/>
-      <c r="R21" s="119"/>
-      <c r="S21" s="107"/>
-      <c r="T21" s="108"/>
-      <c r="U21" s="103"/>
-      <c r="V21" s="103"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="69"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="58"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
     </row>
     <row r="22" spans="1:22" ht="14.7" customHeight="1">
-      <c r="A22" s="73"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="113"/>
-      <c r="P22" s="120"/>
-      <c r="Q22" s="121"/>
-      <c r="R22" s="122"/>
-      <c r="S22" s="109"/>
-      <c r="T22" s="110"/>
-      <c r="U22" s="104"/>
-      <c r="V22" s="104"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="72"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="54"/>
     </row>
     <row r="23" spans="1:22">
       <c r="N23" s="48"/>
@@ -7568,28 +7604,20 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="V10:V22"/>
-    <mergeCell ref="S11:T16"/>
-    <mergeCell ref="O11:O14"/>
-    <mergeCell ref="P11:R14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:R16"/>
-    <mergeCell ref="O17:O22"/>
-    <mergeCell ref="P17:R22"/>
-    <mergeCell ref="S17:T22"/>
-    <mergeCell ref="U10:U22"/>
-    <mergeCell ref="N11:N14"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="N17:N22"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:L17"/>
+    <mergeCell ref="E14:L14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:L16"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="A22:K22"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
@@ -7606,20 +7634,28 @@
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="E8:L8"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:L17"/>
-    <mergeCell ref="E14:L14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:L15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:L16"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="N11:N14"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="N17:N22"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="V10:V22"/>
+    <mergeCell ref="S11:T16"/>
+    <mergeCell ref="O11:O14"/>
+    <mergeCell ref="P11:R14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:R16"/>
+    <mergeCell ref="O17:O22"/>
+    <mergeCell ref="P17:R22"/>
+    <mergeCell ref="S17:T22"/>
+    <mergeCell ref="U10:U22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="47" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7726,11 +7762,11 @@
         <v>44</v>
       </c>
       <c r="G2" s="27"/>
-      <c r="H2" s="91" t="s">
+      <c r="H2" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="93"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1">
       <c r="A3" s="11" t="s">
@@ -8169,7 +8205,7 @@
   </sheetPr>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D6" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="D6" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>

--- a/design-document/ScreenClassManagement.xlsx
+++ b/design-document/ScreenClassManagement.xlsx
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'01_Screen Layout'!$A$1:$N$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'02_Item Definition'!$A$1:$K$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'02_Item Definition'!$A$1:$K$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'03_Definition'!$A$1:$V$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'04_check Condition Monadic'!$A$1:$J$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'05_Check Condition'!$A$1:$H$16</definedName>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="118">
   <si>
     <t>Dữ liệu do hệ thống tính toán và chuyền vào</t>
   </si>
@@ -241,9 +241,6 @@
   </si>
   <si>
     <t>input tên lớp</t>
-  </si>
-  <si>
-    <t>hệ thống sẽ chuyền vào mã lớp</t>
   </si>
   <si>
     <t>Mô tả</t>
@@ -2768,50 +2765,6 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>50801</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>880532</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>131234</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 23"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="990599" y="753534"/>
-          <a:ext cx="7391400" cy="5981700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -2865,6 +2818,44 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>8467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>830260</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>51077</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="965200" y="711200"/>
+          <a:ext cx="7366527" cy="6087810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6584,7 +6575,7 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
@@ -6625,10 +6616,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
@@ -6651,81 +6642,83 @@
     <row r="1" spans="1:10" ht="55.5" customHeight="1"/>
     <row r="2" spans="1:10" ht="18" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>42</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17.5" customHeight="1">
+    <row r="3" spans="1:10" ht="32.700000000000003" customHeight="1">
       <c r="A3" s="5">
-        <f t="shared" ref="A3:A12" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A11" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>1</v>
+      <c r="E3" s="7">
+        <v>30</v>
       </c>
       <c r="F3" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="20"/>
+      <c r="G3" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="32.700000000000003" customHeight="1">
+    <row r="4" spans="1:10" ht="17.5" customHeight="1">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="7">
-        <v>30</v>
+      <c r="E4" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="F4" s="32" t="s">
         <v>49</v>
@@ -6733,12 +6726,12 @@
       <c r="G4" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="30"/>
       <c r="I4" s="7" t="s">
         <v>47</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.5" customHeight="1">
@@ -6747,10 +6740,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>1</v>
@@ -6769,87 +6762,85 @@
         <v>47</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A6" s="5">
+    <row r="6" spans="1:10" ht="31" customHeight="1">
+      <c r="A6" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>20</v>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>49</v>
+      <c r="E6" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>50</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>52</v>
+      <c r="J6" s="49" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="31" customHeight="1">
+    <row r="7" spans="1:10" ht="15" customHeight="1">
       <c r="A7" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>50</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>1</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="49" t="s">
-        <v>51</v>
-      </c>
+      <c r="J7" s="50"/>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1">
+    <row r="8" spans="1:10" ht="30" customHeight="1">
       <c r="A8" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>1</v>
+      <c r="E8" s="22" t="s">
+        <v>37</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>50</v>
@@ -6857,86 +6848,86 @@
       <c r="G8" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="7" t="s">
         <v>47</v>
       </c>
       <c r="J8" s="50"/>
     </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1">
+    <row r="9" spans="1:10" ht="15" customHeight="1">
       <c r="A9" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>37</v>
+      <c r="E9" s="20" t="s">
+        <v>1</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7"/>
+      <c r="G9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5"/>
       <c r="I9" s="7" t="s">
         <v>47</v>
       </c>
       <c r="J9" s="50"/>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1">
-      <c r="A10" s="8">
+    <row r="10" spans="1:10" ht="17.5" customHeight="1">
+      <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
+      <c r="B10" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="32" t="s">
         <v>50</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
         <v>47</v>
       </c>
       <c r="J10" s="50"/>
     </row>
-    <row r="11" spans="1:10" ht="17.5" customHeight="1">
+    <row r="11" spans="1:10" ht="37.35" customHeight="1">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="F11" s="32" t="s">
         <v>50</v>
@@ -6944,105 +6935,76 @@
       <c r="G11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="30"/>
       <c r="I11" s="7" t="s">
         <v>47</v>
       </c>
       <c r="J11" s="50"/>
     </row>
-    <row r="12" spans="1:10" ht="37.35" customHeight="1">
+    <row r="12" spans="1:10" ht="17.5" customHeight="1">
       <c r="A12" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="20" t="s">
         <v>1</v>
       </c>
       <c r="H12" s="30"/>
       <c r="I12" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="50"/>
+      <c r="J12" s="51"/>
     </row>
-    <row r="13" spans="1:10" ht="17.5" customHeight="1">
+    <row r="13" spans="1:10" ht="34" customHeight="1">
       <c r="A13" s="5">
+        <f>ROW()-2</f>
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>6</v>
+      <c r="B13" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="30"/>
+      <c r="E13" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="30">
+        <v>0</v>
+      </c>
       <c r="I13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13" s="51"/>
-    </row>
-    <row r="14" spans="1:10" ht="34" customHeight="1">
-      <c r="A14" s="5">
-        <f>ROW()-2</f>
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="30">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="J14" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J7:J13"/>
+    <mergeCell ref="J6:J12"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.43307086614173229" bottom="0.35433070866141736" header="0.39370078740157483" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7081,22 +7043,22 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1">
       <c r="A1" s="87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="88"/>
       <c r="C1" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D1" s="88" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E1" s="88"/>
       <c r="F1" s="88" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G1" s="88"/>
       <c r="H1" s="112" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I1" s="112"/>
       <c r="J1" s="112"/>
@@ -7105,20 +7067,20 @@
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1">
       <c r="A2" s="89" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="90"/>
       <c r="C2" s="98" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" s="99"/>
       <c r="E2" s="114"/>
       <c r="F2" s="90" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G2" s="90"/>
       <c r="H2" s="98" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I2" s="99"/>
       <c r="J2" s="99"/>
@@ -7127,11 +7089,11 @@
     </row>
     <row r="3" spans="1:22" ht="45.35" customHeight="1">
       <c r="A3" s="91" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="92"/>
       <c r="C3" s="95" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="96"/>
       <c r="E3" s="96"/>
@@ -7145,7 +7107,7 @@
     </row>
     <row r="4" spans="1:22" ht="15" customHeight="1" thickBot="1">
       <c r="A4" s="93" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="94"/>
       <c r="C4" s="102"/>
@@ -7165,25 +7127,25 @@
     </row>
     <row r="6" spans="1:22" ht="13.35">
       <c r="A6" s="101" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="101"/>
       <c r="C6" s="101"/>
       <c r="N6" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="105" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="106"/>
       <c r="D8" s="106"/>
       <c r="E8" s="105" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8" s="106"/>
       <c r="G8" s="106"/>
@@ -7196,20 +7158,20 @@
         <v>43</v>
       </c>
       <c r="O8" s="81" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P8" s="83" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q8" s="84"/>
       <c r="R8" s="84"/>
       <c r="S8" s="84"/>
       <c r="T8" s="85"/>
       <c r="U8" s="81" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V8" s="81" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="43.35" customHeight="1">
@@ -7217,12 +7179,12 @@
         <v>1</v>
       </c>
       <c r="B9" s="109" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="108"/>
       <c r="D9" s="108"/>
       <c r="E9" s="110" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" s="111"/>
       <c r="G9" s="111"/>
@@ -7234,12 +7196,12 @@
       <c r="N9" s="82"/>
       <c r="O9" s="82"/>
       <c r="P9" s="83" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q9" s="84"/>
       <c r="R9" s="45"/>
       <c r="S9" s="83" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T9" s="85"/>
       <c r="U9" s="82"/>
@@ -7251,27 +7213,27 @@
         <v>1</v>
       </c>
       <c r="O10" s="47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P10" s="76" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q10" s="77"/>
       <c r="R10" s="78"/>
       <c r="S10" s="79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T10" s="80"/>
       <c r="U10" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="V10" s="52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="36.85" customHeight="1">
       <c r="A11" s="101" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="101"/>
       <c r="C11" s="101"/>
@@ -7279,10 +7241,10 @@
         <v>2</v>
       </c>
       <c r="O11" s="61" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P11" s="64" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q11" s="65"/>
       <c r="R11" s="66"/>
@@ -7304,15 +7266,15 @@
     </row>
     <row r="13" spans="1:22" ht="12.7" customHeight="1">
       <c r="A13" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="105" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="106"/>
       <c r="D13" s="106"/>
       <c r="E13" s="105" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13" s="106"/>
       <c r="G13" s="106"/>
@@ -7336,12 +7298,12 @@
         <v>1</v>
       </c>
       <c r="B14" s="107" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="108"/>
       <c r="D14" s="108"/>
       <c r="E14" s="95" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F14" s="96"/>
       <c r="G14" s="96"/>
@@ -7365,12 +7327,12 @@
         <v>2</v>
       </c>
       <c r="B15" s="119" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C15" s="120"/>
       <c r="D15" s="121"/>
       <c r="E15" s="122" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F15" s="96"/>
       <c r="G15" s="96"/>
@@ -7383,10 +7345,10 @@
         <v>3</v>
       </c>
       <c r="O15" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="P15" s="64" t="s">
         <v>111</v>
-      </c>
-      <c r="P15" s="64" t="s">
-        <v>112</v>
       </c>
       <c r="Q15" s="65"/>
       <c r="R15" s="66"/>
@@ -7400,12 +7362,12 @@
         <v>3</v>
       </c>
       <c r="B16" s="115" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C16" s="116"/>
       <c r="D16" s="116"/>
       <c r="E16" s="117" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F16" s="96"/>
       <c r="G16" s="96"/>
@@ -7429,12 +7391,12 @@
         <v>4</v>
       </c>
       <c r="B17" s="115" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C17" s="116"/>
       <c r="D17" s="116"/>
       <c r="E17" s="117" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F17" s="96"/>
       <c r="G17" s="96"/>
@@ -7447,10 +7409,10 @@
         <v>4</v>
       </c>
       <c r="O17" s="61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P17" s="64" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q17" s="65"/>
       <c r="R17" s="66"/>
@@ -7785,7 +7747,7 @@
         <v>41</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G3" s="24" t="s">
         <v>40</v>
@@ -7887,7 +7849,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I6" s="39" t="s">
         <v>21</v>
@@ -7919,7 +7881,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I7" s="39" t="s">
         <v>19</v>
@@ -8175,7 +8137,7 @@
         <v>36</v>
       </c>
       <c r="H15" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I15" s="39" t="s">
         <v>3</v>
@@ -8312,16 +8274,16 @@
         <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E6" s="40" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>1</v>
@@ -8338,16 +8300,16 @@
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E7" s="40" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="132" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>1</v>
@@ -8364,14 +8326,14 @@
         <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="133"/>
       <c r="G8" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>1</v>
@@ -8388,13 +8350,13 @@
         <v>17</v>
       </c>
       <c r="D9" s="129" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E9" s="40" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="134" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>1</v>

--- a/design-document/ScreenClassManagement.xlsx
+++ b/design-document/ScreenClassManagement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10547" tabRatio="833"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="10548" tabRatio="833" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="01_Screen Layout" sheetId="4" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="129">
   <si>
     <t>Dữ liệu do hệ thống tính toán và chuyền vào</t>
   </si>
@@ -433,6 +433,39 @@
   </si>
   <si>
     <t>AKD-MS006-E</t>
+  </si>
+  <si>
+    <t>lblStartTime</t>
+  </si>
+  <si>
+    <t>lblName</t>
+  </si>
+  <si>
+    <t>lblFinishTime</t>
+  </si>
+  <si>
+    <t>cmbMonday</t>
+  </si>
+  <si>
+    <t>cmbTuesday</t>
+  </si>
+  <si>
+    <t>cmbWednesday</t>
+  </si>
+  <si>
+    <t>cmbThursday</t>
+  </si>
+  <si>
+    <t>cmbFriday</t>
+  </si>
+  <si>
+    <t>cmbSaturday</t>
+  </si>
+  <si>
+    <t>cmbSunday</t>
+  </si>
+  <si>
+    <t>label</t>
   </si>
 </sst>
 </file>
@@ -1073,6 +1106,156 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1135,156 +1318,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2115,7 +2148,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="15240"/>
-          <a:ext cx="8932333" cy="502920"/>
+          <a:ext cx="8039100" cy="502920"/>
           <a:chOff x="0" y="2"/>
           <a:chExt cx="1121" cy="52"/>
         </a:xfrm>
@@ -2511,7 +2544,7 @@
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="161" y="34"/>
+            <a:off x="40" y="31"/>
             <a:ext cx="393" cy="19"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -2886,7 +2919,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="15240"/>
-          <a:ext cx="9719733" cy="502920"/>
+          <a:ext cx="8747760" cy="502920"/>
           <a:chOff x="0" y="2"/>
           <a:chExt cx="1121" cy="52"/>
         </a:xfrm>
@@ -3282,7 +3315,7 @@
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="161" y="34"/>
+            <a:off x="35" y="32"/>
             <a:ext cx="393" cy="19"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -3798,15 +3831,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>25400</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>16933</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>194733</xdr:colOff>
+          <xdr:colOff>198120</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>143933</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3835,7 +3868,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="36576" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -3978,15 +4011,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>313267</xdr:colOff>
+          <xdr:colOff>312420</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>465667</xdr:colOff>
+          <xdr:colOff>464820</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>127000</xdr:rowOff>
+          <xdr:rowOff>129540</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4015,7 +4048,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="36576" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4407,7 +4440,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="49953"/>
-          <a:ext cx="11352742" cy="502920"/>
+          <a:ext cx="10384155" cy="502920"/>
           <a:chOff x="0" y="2"/>
           <a:chExt cx="1121" cy="52"/>
         </a:xfrm>
@@ -5057,7 +5090,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="15240" y="22860"/>
-          <a:ext cx="11575627" cy="502920"/>
+          <a:ext cx="10416540" cy="502920"/>
           <a:chOff x="0" y="2"/>
           <a:chExt cx="1121" cy="52"/>
         </a:xfrm>
@@ -5672,7 +5705,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="45720"/>
-          <a:ext cx="11337925" cy="502920"/>
+          <a:ext cx="10372725" cy="502920"/>
           <a:chOff x="-1" y="6"/>
           <a:chExt cx="1121" cy="52"/>
         </a:xfrm>
@@ -6052,7 +6085,7 @@
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="161" y="34"/>
+            <a:off x="168" y="35"/>
             <a:ext cx="394" cy="19"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -6574,11 +6607,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
   <cols>
     <col min="1" max="9" width="9" style="1"/>
     <col min="10" max="10" width="17.44140625" style="1" customWidth="1"/>
@@ -6619,10 +6652,10 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="C3" sqref="C3:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="18" customWidth="1"/>
     <col min="2" max="2" width="15.109375" style="18" customWidth="1"/>
@@ -6681,7 +6714,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>1</v>
@@ -6690,7 +6723,7 @@
         <v>30</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="G3" s="20" t="s">
         <v>48</v>
@@ -6703,7 +6736,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17.5" customHeight="1">
+    <row r="4" spans="1:10" ht="17.55" customHeight="1">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -6712,7 +6745,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>1</v>
@@ -6721,7 +6754,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="G4" s="20" t="s">
         <v>48</v>
@@ -6734,7 +6767,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17.5" customHeight="1">
+    <row r="5" spans="1:10" ht="17.55" customHeight="1">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6743,7 +6776,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>1</v>
@@ -6752,7 +6785,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>48</v>
@@ -6765,7 +6798,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="31" customHeight="1">
+    <row r="6" spans="1:10" ht="31.05" customHeight="1">
       <c r="A6" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6774,7 +6807,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>1</v>
@@ -6805,7 +6838,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>1</v>
@@ -6834,7 +6867,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>1</v>
@@ -6863,7 +6896,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>1</v>
@@ -6883,7 +6916,7 @@
       </c>
       <c r="J9" s="50"/>
     </row>
-    <row r="10" spans="1:10" ht="17.5" customHeight="1">
+    <row r="10" spans="1:10" ht="17.55" customHeight="1">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6892,7 +6925,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>1</v>
@@ -6921,7 +6954,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>1</v>
@@ -6941,7 +6974,7 @@
       </c>
       <c r="J11" s="50"/>
     </row>
-    <row r="12" spans="1:10" ht="17.5" customHeight="1">
+    <row r="12" spans="1:10" ht="17.55" customHeight="1">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -6949,7 +6982,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>1</v>
@@ -6969,7 +7002,7 @@
       </c>
       <c r="J12" s="51"/>
     </row>
-    <row r="13" spans="1:10" ht="34" customHeight="1">
+    <row r="13" spans="1:10" ht="34.049999999999997" customHeight="1">
       <c r="A13" s="5">
         <f>ROW()-2</f>
         <v>11</v>
@@ -7019,11 +7052,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P11" sqref="P11:R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="33"/>
     <col min="3" max="3" width="9.6640625" style="33" customWidth="1"/>
@@ -7042,95 +7075,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="88"/>
+      <c r="B1" s="66"/>
       <c r="C1" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88" t="s">
+      <c r="E1" s="66"/>
+      <c r="F1" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="88"/>
-      <c r="H1" s="112" t="s">
+      <c r="G1" s="66"/>
+      <c r="H1" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="113"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="68"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="98" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="99"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="90" t="s">
+      <c r="D2" s="70"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="90"/>
-      <c r="H2" s="98" t="s">
+      <c r="G2" s="72"/>
+      <c r="H2" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="100"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="81"/>
     </row>
-    <row r="3" spans="1:22" ht="45.35" customHeight="1">
-      <c r="A3" s="91" t="s">
+    <row r="3" spans="1:22" ht="45.3" customHeight="1">
+      <c r="A3" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="95" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="97"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="80"/>
     </row>
     <row r="4" spans="1:22" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="104"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="85"/>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="86"/>
-      <c r="B5" s="86"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="73"/>
     </row>
-    <row r="6" spans="1:22" ht="13.35">
-      <c r="A6" s="101" t="s">
+    <row r="6" spans="1:22">
+      <c r="A6" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
       <c r="N6" s="44" t="s">
         <v>101</v>
       </c>
@@ -7139,38 +7172,38 @@
       <c r="A8" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="105" t="s">
+      <c r="B8" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="105" t="s">
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
-      <c r="N8" s="81" t="s">
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="N8" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="O8" s="81" t="s">
+      <c r="O8" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="P8" s="83" t="s">
+      <c r="P8" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="84"/>
-      <c r="S8" s="84"/>
-      <c r="T8" s="85"/>
-      <c r="U8" s="81" t="s">
+      <c r="Q8" s="92"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="92"/>
+      <c r="T8" s="93"/>
+      <c r="U8" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="V8" s="81" t="s">
+      <c r="V8" s="89" t="s">
         <v>88</v>
       </c>
     </row>
@@ -7178,36 +7211,36 @@
       <c r="A9" s="35">
         <v>1</v>
       </c>
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="110" t="s">
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="83" t="s">
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="Q9" s="84"/>
+      <c r="Q9" s="92"/>
       <c r="R9" s="45"/>
-      <c r="S9" s="83" t="s">
+      <c r="S9" s="91" t="s">
         <v>105</v>
       </c>
-      <c r="T9" s="85"/>
-      <c r="U9" s="82"/>
-      <c r="V9" s="82"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="90"/>
+      <c r="V9" s="90"/>
     </row>
-    <row r="10" spans="1:22" ht="36.85" customHeight="1">
+    <row r="10" spans="1:22" ht="36.9" customHeight="1">
       <c r="E10" s="37"/>
       <c r="N10" s="46">
         <v>1</v>
@@ -7215,277 +7248,277 @@
       <c r="O10" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="P10" s="76" t="s">
+      <c r="P10" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="79" t="s">
+      <c r="Q10" s="98"/>
+      <c r="R10" s="99"/>
+      <c r="S10" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="T10" s="80"/>
-      <c r="U10" s="52" t="s">
+      <c r="T10" s="101"/>
+      <c r="U10" s="102" t="s">
         <v>108</v>
       </c>
-      <c r="V10" s="52" t="s">
+      <c r="V10" s="102" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="36.85" customHeight="1">
-      <c r="A11" s="101" t="s">
+    <row r="11" spans="1:22" ht="36.9" customHeight="1">
+      <c r="A11" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
-      <c r="N11" s="73">
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="N11" s="94">
         <v>2</v>
       </c>
-      <c r="O11" s="61" t="s">
+      <c r="O11" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="P11" s="64" t="s">
+      <c r="P11" s="114" t="s">
         <v>109</v>
       </c>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="55"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53"/>
+      <c r="Q11" s="115"/>
+      <c r="R11" s="116"/>
+      <c r="S11" s="105"/>
+      <c r="T11" s="106"/>
+      <c r="U11" s="103"/>
+      <c r="V11" s="103"/>
     </row>
     <row r="12" spans="1:22" ht="37.35" customHeight="1">
-      <c r="N12" s="74"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="69"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="112"/>
+      <c r="P12" s="117"/>
+      <c r="Q12" s="118"/>
+      <c r="R12" s="119"/>
+      <c r="S12" s="107"/>
+      <c r="T12" s="108"/>
+      <c r="U12" s="103"/>
+      <c r="V12" s="103"/>
     </row>
-    <row r="13" spans="1:22" ht="12.7" customHeight="1">
+    <row r="13" spans="1:22" ht="12.75" customHeight="1">
       <c r="A13" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="105" t="s">
+      <c r="B13" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="105" t="s">
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="106"/>
-      <c r="L13" s="106"/>
-      <c r="N13" s="74"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="69"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="53"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="117"/>
+      <c r="Q13" s="118"/>
+      <c r="R13" s="119"/>
+      <c r="S13" s="107"/>
+      <c r="T13" s="108"/>
+      <c r="U13" s="103"/>
+      <c r="V13" s="103"/>
     </row>
     <row r="14" spans="1:22" ht="31.5" customHeight="1">
       <c r="A14" s="35">
         <v>1</v>
       </c>
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="95" t="s">
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="118"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="72"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="53"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="56"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="113"/>
+      <c r="P14" s="120"/>
+      <c r="Q14" s="121"/>
+      <c r="R14" s="122"/>
+      <c r="S14" s="107"/>
+      <c r="T14" s="108"/>
+      <c r="U14" s="103"/>
+      <c r="V14" s="103"/>
     </row>
-    <row r="15" spans="1:22" ht="39.35" customHeight="1">
+    <row r="15" spans="1:22" ht="39.299999999999997" customHeight="1">
       <c r="A15" s="35">
         <v>2</v>
       </c>
-      <c r="B15" s="119" t="s">
+      <c r="B15" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="122" t="s">
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="118"/>
-      <c r="N15" s="73">
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="56"/>
+      <c r="N15" s="94">
         <v>3</v>
       </c>
-      <c r="O15" s="61" t="s">
+      <c r="O15" s="111" t="s">
         <v>110</v>
       </c>
-      <c r="P15" s="64" t="s">
+      <c r="P15" s="114" t="s">
         <v>111</v>
       </c>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="53"/>
-      <c r="V15" s="53"/>
+      <c r="Q15" s="115"/>
+      <c r="R15" s="116"/>
+      <c r="S15" s="107"/>
+      <c r="T15" s="108"/>
+      <c r="U15" s="103"/>
+      <c r="V15" s="103"/>
     </row>
-    <row r="16" spans="1:22" ht="52" customHeight="1">
+    <row r="16" spans="1:22" ht="52.05" customHeight="1">
       <c r="A16" s="34">
         <v>3</v>
       </c>
-      <c r="B16" s="115" t="s">
+      <c r="B16" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="117" t="s">
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="118"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="60"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="53"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="56"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="120"/>
+      <c r="Q16" s="121"/>
+      <c r="R16" s="122"/>
+      <c r="S16" s="109"/>
+      <c r="T16" s="110"/>
+      <c r="U16" s="103"/>
+      <c r="V16" s="103"/>
     </row>
-    <row r="17" spans="1:22" ht="64.7" customHeight="1">
+    <row r="17" spans="1:22" ht="64.650000000000006" customHeight="1">
       <c r="A17" s="34">
         <v>4</v>
       </c>
-      <c r="B17" s="115" t="s">
+      <c r="B17" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="116"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="117" t="s">
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="118"/>
-      <c r="N17" s="73">
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="56"/>
+      <c r="N17" s="94">
         <v>4</v>
       </c>
-      <c r="O17" s="61" t="s">
+      <c r="O17" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="P17" s="64" t="s">
+      <c r="P17" s="114" t="s">
         <v>109</v>
       </c>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="66"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="53"/>
-      <c r="V17" s="53"/>
+      <c r="Q17" s="115"/>
+      <c r="R17" s="116"/>
+      <c r="S17" s="105"/>
+      <c r="T17" s="106"/>
+      <c r="U17" s="103"/>
+      <c r="V17" s="103"/>
     </row>
-    <row r="18" spans="1:22" ht="64.7" customHeight="1">
-      <c r="N18" s="74"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="57"/>
-      <c r="T18" s="58"/>
-      <c r="U18" s="53"/>
-      <c r="V18" s="53"/>
+    <row r="18" spans="1:22" ht="64.650000000000006" customHeight="1">
+      <c r="N18" s="95"/>
+      <c r="O18" s="112"/>
+      <c r="P18" s="117"/>
+      <c r="Q18" s="118"/>
+      <c r="R18" s="119"/>
+      <c r="S18" s="107"/>
+      <c r="T18" s="108"/>
+      <c r="U18" s="103"/>
+      <c r="V18" s="103"/>
     </row>
-    <row r="19" spans="1:22" ht="15.35" customHeight="1">
-      <c r="N19" s="74"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="69"/>
-      <c r="S19" s="57"/>
-      <c r="T19" s="58"/>
-      <c r="U19" s="53"/>
-      <c r="V19" s="53"/>
+    <row r="19" spans="1:22" ht="15.3" customHeight="1">
+      <c r="N19" s="95"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="117"/>
+      <c r="Q19" s="118"/>
+      <c r="R19" s="119"/>
+      <c r="S19" s="107"/>
+      <c r="T19" s="108"/>
+      <c r="U19" s="103"/>
+      <c r="V19" s="103"/>
     </row>
-    <row r="20" spans="1:22" ht="15.35" customHeight="1">
-      <c r="N20" s="74"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="69"/>
-      <c r="S20" s="57"/>
-      <c r="T20" s="58"/>
-      <c r="U20" s="53"/>
-      <c r="V20" s="53"/>
+    <row r="20" spans="1:22" ht="15.3" customHeight="1">
+      <c r="N20" s="95"/>
+      <c r="O20" s="112"/>
+      <c r="P20" s="117"/>
+      <c r="Q20" s="118"/>
+      <c r="R20" s="119"/>
+      <c r="S20" s="107"/>
+      <c r="T20" s="108"/>
+      <c r="U20" s="103"/>
+      <c r="V20" s="103"/>
     </row>
-    <row r="21" spans="1:22" ht="11.35" customHeight="1">
-      <c r="N21" s="74"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="69"/>
-      <c r="S21" s="57"/>
-      <c r="T21" s="58"/>
-      <c r="U21" s="53"/>
-      <c r="V21" s="53"/>
+    <row r="21" spans="1:22" ht="11.4" customHeight="1">
+      <c r="N21" s="95"/>
+      <c r="O21" s="112"/>
+      <c r="P21" s="117"/>
+      <c r="Q21" s="118"/>
+      <c r="R21" s="119"/>
+      <c r="S21" s="107"/>
+      <c r="T21" s="108"/>
+      <c r="U21" s="103"/>
+      <c r="V21" s="103"/>
     </row>
     <row r="22" spans="1:22" ht="14.7" customHeight="1">
-      <c r="A22" s="86"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="86"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="72"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="60"/>
-      <c r="U22" s="54"/>
-      <c r="V22" s="54"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="113"/>
+      <c r="P22" s="120"/>
+      <c r="Q22" s="121"/>
+      <c r="R22" s="122"/>
+      <c r="S22" s="109"/>
+      <c r="T22" s="110"/>
+      <c r="U22" s="104"/>
+      <c r="V22" s="104"/>
     </row>
     <row r="23" spans="1:22">
       <c r="N23" s="48"/>
@@ -7566,20 +7599,28 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:L17"/>
-    <mergeCell ref="E14:L14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:L15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:L16"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="V10:V22"/>
+    <mergeCell ref="S11:T16"/>
+    <mergeCell ref="O11:O14"/>
+    <mergeCell ref="P11:R14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:R16"/>
+    <mergeCell ref="O17:O22"/>
+    <mergeCell ref="P17:R22"/>
+    <mergeCell ref="S17:T22"/>
+    <mergeCell ref="U10:U22"/>
+    <mergeCell ref="N11:N14"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="N17:N22"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="S9:T9"/>
     <mergeCell ref="A22:K22"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
@@ -7596,28 +7637,20 @@
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="E8:L8"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="N11:N14"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="N17:N22"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="V10:V22"/>
-    <mergeCell ref="S11:T16"/>
-    <mergeCell ref="O11:O14"/>
-    <mergeCell ref="P11:R14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:R16"/>
-    <mergeCell ref="O17:O22"/>
-    <mergeCell ref="P17:R22"/>
-    <mergeCell ref="S17:T22"/>
-    <mergeCell ref="U10:U22"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:L17"/>
+    <mergeCell ref="E14:L14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:L16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="47" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7642,15 +7675,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>25400</xdr:colOff>
+                    <xdr:colOff>22860</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>16933</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>194733</xdr:colOff>
+                    <xdr:colOff>198120</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>143933</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7664,15 +7697,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>313267</xdr:colOff>
+                    <xdr:colOff>312420</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>465667</xdr:colOff>
+                    <xdr:colOff>464820</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>127000</xdr:rowOff>
+                    <xdr:rowOff>129540</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7689,11 +7722,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="B2" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
   <cols>
     <col min="1" max="1" width="4.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" style="1" customWidth="1"/>
@@ -7708,7 +7741,7 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="56.5" customHeight="1">
+    <row r="1" spans="1:10" ht="56.55" customHeight="1">
       <c r="G1" s="29"/>
       <c r="J1" s="29"/>
     </row>
@@ -7724,11 +7757,11 @@
         <v>44</v>
       </c>
       <c r="G2" s="27"/>
-      <c r="H2" s="83" t="s">
+      <c r="H2" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="85"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="93"/>
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1">
       <c r="A3" s="11" t="s">
@@ -7802,7 +7835,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>38</v>
@@ -7819,8 +7852,8 @@
       <c r="H5" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="39" t="s">
-        <v>23</v>
+      <c r="I5" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="J5" s="21" t="s">
         <v>39</v>
@@ -7834,7 +7867,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>38</v>
@@ -7851,8 +7884,8 @@
       <c r="H6" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="39" t="s">
-        <v>21</v>
+      <c r="I6" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="J6" s="21" t="s">
         <v>1</v>
@@ -7866,7 +7899,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>38</v>
@@ -7883,8 +7916,8 @@
       <c r="H7" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="39" t="s">
-        <v>19</v>
+      <c r="I7" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="J7" s="21" t="s">
         <v>39</v>
@@ -7898,7 +7931,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>1</v>
@@ -7916,7 +7949,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="39" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="J8" s="21" t="s">
         <v>39</v>
@@ -7930,7 +7963,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>1</v>
@@ -7948,7 +7981,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="39" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>37</v>
@@ -7962,7 +7995,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>1</v>
@@ -7980,7 +8013,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="39" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>37</v>
@@ -7994,7 +8027,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>1</v>
@@ -8012,7 +8045,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>37</v>
@@ -8026,7 +8059,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>1</v>
@@ -8044,7 +8077,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="39" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>37</v>
@@ -8058,7 +8091,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>1</v>
@@ -8076,7 +8109,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="39" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>37</v>
@@ -8090,7 +8123,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>1</v>
@@ -8108,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="39" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>37</v>
@@ -8167,11 +8200,11 @@
   </sheetPr>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="D6" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
   <cols>
     <col min="1" max="1" width="4.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
@@ -8185,7 +8218,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="18" customFormat="1" ht="56.5" customHeight="1">
+    <row r="1" spans="1:15" s="18" customFormat="1" ht="56.55" customHeight="1">
       <c r="L1" s="19"/>
       <c r="O1" s="19"/>
     </row>
@@ -8453,7 +8486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="59.5" customHeight="1">
+    <row r="14" spans="1:15" ht="59.55" customHeight="1">
       <c r="A14" s="5">
         <v>10</v>
       </c>

--- a/design-document/ScreenClassManagement.xlsx
+++ b/design-document/ScreenClassManagement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="10548" tabRatio="833" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10547" tabRatio="833" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="01_Screen Layout" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'01_Screen Layout'!$A$1:$N$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'02_Item Definition'!$A$1:$K$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'03_Definition'!$A$1:$V$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'03_Definition'!$A$1:$V$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'04_check Condition Monadic'!$A$1:$J$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'05_Check Condition'!$A$1:$H$16</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'01_Screen Layout'!$1:$1</definedName>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="129">
   <si>
     <t>Dữ liệu do hệ thống tính toán và chuyền vào</t>
   </si>
@@ -357,12 +357,6 @@
     <t>Minimum value</t>
   </si>
   <si>
-    <t>1 &lt;= giờ học &lt;= 24</t>
-  </si>
-  <si>
-    <t>0 &lt;= giờ kết thúc &lt;= 24</t>
-  </si>
-  <si>
     <t>Có ít nhất 1 buổi được chọn</t>
   </si>
   <si>
@@ -405,36 +399,18 @@
     <t>Class_Model.cs, Student_Model.cs, Learn_Model.cs, AccsessDB_DAO.cs,   LoadClass.cs</t>
   </si>
   <si>
-    <t>SeachMemer_BLO</t>
-  </si>
-  <si>
-    <t>Class_Model.cs, Student_Model.cs, Learn_Model.cs, AccsessDB_DAO.cs, SaveClass_DAO.cs</t>
-  </si>
-  <si>
     <t>Xóa class</t>
   </si>
   <si>
-    <t>Class_Model.cs, Student_Model.cs, Learn_Model.cs, AccsessDB_DAO.cs, DeleteClass_DAO.cs</t>
-  </si>
-  <si>
     <t>Edit Class</t>
   </si>
   <si>
-    <t xml:space="preserve">Chọn dòng cần thay đổi dữ liệu, click "Save" hệ thống kiểm tra dữ liệu hợp lệ </t>
-  </si>
-  <si>
     <t>Thêm lớp mới</t>
   </si>
   <si>
     <t>Edit class</t>
   </si>
   <si>
-    <t>AKD-MS03-E</t>
-  </si>
-  <si>
-    <t>AKD-MS006-E</t>
-  </si>
-  <si>
     <t>lblStartTime</t>
   </si>
   <si>
@@ -466,6 +442,30 @@
   </si>
   <si>
     <t>label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chọn dòng cần thay đổi dữ liệu, click "lưu" hệ thống kiểm tra dữ liệu hợp lệ </t>
+  </si>
+  <si>
+    <t>ManageClass_BLO</t>
+  </si>
+  <si>
+    <t>Class_Model.cs, Student_Model.cs, Learn_Model.cs, AccsessDB_DAO.cs, SaveClass_DAO.cs,LoadClass.cs</t>
+  </si>
+  <si>
+    <t>Class_Model.cs, Student_Model.cs, Learn_Model.cs, AccsessDB_DAO.cs, DeleteClass_DAO.cs,LoadClass.cs</t>
+  </si>
+  <si>
+    <t>1 &lt;= giờ học &lt;= 24, phải đúng định dạng</t>
+  </si>
+  <si>
+    <t>0 &lt;= giờ kết thúc &lt;= 24, phải đúng định dạng</t>
+  </si>
+  <si>
+    <t>AKD-MS0015-E</t>
+  </si>
+  <si>
+    <t>Chọn ít nhất một ngày học trong tuần</t>
   </si>
 </sst>
 </file>
@@ -2919,7 +2919,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="15240"/>
-          <a:ext cx="8747760" cy="502920"/>
+          <a:ext cx="9719733" cy="502920"/>
           <a:chOff x="0" y="2"/>
           <a:chExt cx="1121" cy="52"/>
         </a:xfrm>
@@ -3831,15 +3831,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>25400</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>16933</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>198120</xdr:colOff>
+          <xdr:colOff>194733</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>143933</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3868,7 +3868,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="36576" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -3882,8 +3882,20 @@
                   <a:latin typeface="Arial"/>
                   <a:cs typeface="Arial"/>
                 </a:rPr>
-                <a:t>x</a:t>
+                <a:t>-</a:t>
               </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -3899,7 +3911,7 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>186266</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3623300" cy="264560"/>
+    <xdr:ext cx="3575402" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -3907,8 +3919,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2700869" y="6468533"/>
-          <a:ext cx="3623300" cy="264560"/>
+          <a:off x="2700869" y="5647266"/>
+          <a:ext cx="3575402" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3941,7 +3953,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> điền thông tin cần thêm vào dòng mới, click "Save".</a:t>
+            <a:t> điền thông tin cần thêm vào dòng mới, click "Lưu".</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -4011,15 +4023,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>312420</xdr:colOff>
+          <xdr:colOff>313267</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>464820</xdr:colOff>
+          <xdr:colOff>465667</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>129540</xdr:rowOff>
+          <xdr:rowOff>127000</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4048,7 +4060,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="36576" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4440,7 +4452,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="49953"/>
-          <a:ext cx="10384155" cy="502920"/>
+          <a:ext cx="11352742" cy="502920"/>
           <a:chOff x="0" y="2"/>
           <a:chExt cx="1121" cy="52"/>
         </a:xfrm>
@@ -5090,7 +5102,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="15240" y="22860"/>
-          <a:ext cx="10416540" cy="502920"/>
+          <a:ext cx="11711093" cy="502920"/>
           <a:chOff x="0" y="2"/>
           <a:chExt cx="1121" cy="52"/>
         </a:xfrm>
@@ -5705,7 +5717,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="45720"/>
-          <a:ext cx="10372725" cy="502920"/>
+          <a:ext cx="11473392" cy="502920"/>
           <a:chOff x="-1" y="6"/>
           <a:chExt cx="1121" cy="52"/>
         </a:xfrm>
@@ -6339,6 +6351,70 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>194733</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="945708" cy="392415"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 23"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7687733" y="2159000"/>
+          <a:ext cx="945708" cy="392415"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>AKD-MS03-E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t> AKD-MS014-E</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6611,7 +6687,7 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
   <cols>
     <col min="1" max="9" width="9" style="1"/>
     <col min="10" max="10" width="17.44140625" style="1" customWidth="1"/>
@@ -6652,10 +6728,10 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C5"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="18" customWidth="1"/>
     <col min="2" max="2" width="15.109375" style="18" customWidth="1"/>
@@ -6714,7 +6790,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>1</v>
@@ -6723,7 +6799,7 @@
         <v>30</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G3" s="20" t="s">
         <v>48</v>
@@ -6736,7 +6812,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17.55" customHeight="1">
+    <row r="4" spans="1:10" ht="17.5" customHeight="1">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -6745,7 +6821,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>1</v>
@@ -6754,7 +6830,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G4" s="20" t="s">
         <v>48</v>
@@ -6767,7 +6843,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17.55" customHeight="1">
+    <row r="5" spans="1:10" ht="17.5" customHeight="1">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6776,7 +6852,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>1</v>
@@ -6785,7 +6861,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>48</v>
@@ -6798,7 +6874,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="31.05" customHeight="1">
+    <row r="6" spans="1:10" ht="31" customHeight="1">
       <c r="A6" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6807,7 +6883,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>1</v>
@@ -6838,7 +6914,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>1</v>
@@ -6867,7 +6943,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>1</v>
@@ -6896,7 +6972,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>1</v>
@@ -6916,7 +6992,7 @@
       </c>
       <c r="J9" s="50"/>
     </row>
-    <row r="10" spans="1:10" ht="17.55" customHeight="1">
+    <row r="10" spans="1:10" ht="17.5" customHeight="1">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6925,7 +7001,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>1</v>
@@ -6954,7 +7030,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>1</v>
@@ -6974,15 +7050,15 @@
       </c>
       <c r="J11" s="50"/>
     </row>
-    <row r="12" spans="1:10" ht="17.55" customHeight="1">
+    <row r="12" spans="1:10" ht="17.5" customHeight="1">
       <c r="A12" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>1</v>
@@ -7002,7 +7078,7 @@
       </c>
       <c r="J12" s="51"/>
     </row>
-    <row r="13" spans="1:10" ht="34.049999999999997" customHeight="1">
+    <row r="13" spans="1:10" ht="34" customHeight="1">
       <c r="A13" s="5">
         <f>ROW()-2</f>
         <v>11</v>
@@ -7029,7 +7105,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>46</v>
@@ -7052,11 +7128,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11:R14"/>
+    <sheetView view="pageBreakPreview" topLeftCell="N9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17:R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12.7"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="33"/>
     <col min="3" max="3" width="9.6640625" style="33" customWidth="1"/>
@@ -7065,12 +7141,13 @@
     <col min="12" max="12" width="8.88671875" style="33" customWidth="1"/>
     <col min="13" max="13" width="8.88671875" style="33"/>
     <col min="14" max="14" width="7.6640625" style="33" customWidth="1"/>
-    <col min="15" max="15" width="18.88671875" style="33" customWidth="1"/>
+    <col min="15" max="15" width="19.77734375" style="33" customWidth="1"/>
     <col min="16" max="16" width="17.44140625" style="33" customWidth="1"/>
     <col min="17" max="17" width="27.88671875" style="33" customWidth="1"/>
     <col min="18" max="19" width="17.44140625" style="33" customWidth="1"/>
     <col min="20" max="20" width="1.109375" style="33" customWidth="1"/>
-    <col min="21" max="22" width="17.44140625" style="33" customWidth="1"/>
+    <col min="21" max="21" width="17.44140625" style="33" customWidth="1"/>
+    <col min="22" max="22" width="19" style="33" customWidth="1"/>
     <col min="23" max="16384" width="8.88671875" style="33"/>
   </cols>
   <sheetData>
@@ -7120,7 +7197,7 @@
       <c r="K2" s="70"/>
       <c r="L2" s="81"/>
     </row>
-    <row r="3" spans="1:22" ht="45.3" customHeight="1">
+    <row r="3" spans="1:22" ht="45.35" customHeight="1">
       <c r="A3" s="76" t="s">
         <v>77</v>
       </c>
@@ -7158,14 +7235,14 @@
       <c r="A5" s="73"/>
       <c r="B5" s="73"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" ht="13.35">
       <c r="A6" s="82" t="s">
         <v>74</v>
       </c>
       <c r="B6" s="82"/>
       <c r="C6" s="82"/>
       <c r="N6" s="44" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -7194,14 +7271,14 @@
         <v>87</v>
       </c>
       <c r="P8" s="91" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="92"/>
       <c r="R8" s="92"/>
       <c r="S8" s="92"/>
       <c r="T8" s="93"/>
       <c r="U8" s="89" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="V8" s="89" t="s">
         <v>88</v>
@@ -7229,18 +7306,18 @@
       <c r="N9" s="90"/>
       <c r="O9" s="90"/>
       <c r="P9" s="91" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q9" s="92"/>
       <c r="R9" s="45"/>
       <c r="S9" s="91" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="T9" s="93"/>
       <c r="U9" s="90"/>
       <c r="V9" s="90"/>
     </row>
-    <row r="10" spans="1:22" ht="36.9" customHeight="1">
+    <row r="10" spans="1:22" ht="36.85" customHeight="1">
       <c r="E10" s="37"/>
       <c r="N10" s="46">
         <v>1</v>
@@ -7249,22 +7326,22 @@
         <v>73</v>
       </c>
       <c r="P10" s="97" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q10" s="98"/>
       <c r="R10" s="99"/>
       <c r="S10" s="100" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="T10" s="101"/>
       <c r="U10" s="102" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="V10" s="102" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="36.9" customHeight="1">
+    <row r="11" spans="1:22" ht="36.85" customHeight="1">
       <c r="A11" s="82" t="s">
         <v>71</v>
       </c>
@@ -7274,10 +7351,10 @@
         <v>2</v>
       </c>
       <c r="O11" s="111" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="P11" s="114" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="Q11" s="115"/>
       <c r="R11" s="116"/>
@@ -7297,7 +7374,7 @@
       <c r="U12" s="103"/>
       <c r="V12" s="103"/>
     </row>
-    <row r="13" spans="1:22" ht="12.75" customHeight="1">
+    <row r="13" spans="1:22" ht="12.85" customHeight="1">
       <c r="A13" s="36" t="s">
         <v>70</v>
       </c>
@@ -7355,17 +7432,17 @@
       <c r="U14" s="103"/>
       <c r="V14" s="103"/>
     </row>
-    <row r="15" spans="1:22" ht="39.299999999999997" customHeight="1">
+    <row r="15" spans="1:22" ht="39.35" customHeight="1">
       <c r="A15" s="35">
         <v>2</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C15" s="59"/>
       <c r="D15" s="60"/>
       <c r="E15" s="61" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F15" s="55"/>
       <c r="G15" s="55"/>
@@ -7378,10 +7455,10 @@
         <v>3</v>
       </c>
       <c r="O15" s="111" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="P15" s="114" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="Q15" s="115"/>
       <c r="R15" s="116"/>
@@ -7390,12 +7467,12 @@
       <c r="U15" s="103"/>
       <c r="V15" s="103"/>
     </row>
-    <row r="16" spans="1:22" ht="52.05" customHeight="1">
+    <row r="16" spans="1:22" ht="52" customHeight="1">
       <c r="A16" s="34">
         <v>3</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C16" s="53"/>
       <c r="D16" s="53"/>
@@ -7419,12 +7496,12 @@
       <c r="U16" s="103"/>
       <c r="V16" s="103"/>
     </row>
-    <row r="17" spans="1:22" ht="64.650000000000006" customHeight="1">
+    <row r="17" spans="1:22" ht="64.7" customHeight="1">
       <c r="A17" s="34">
         <v>4</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C17" s="53"/>
       <c r="D17" s="53"/>
@@ -7442,10 +7519,10 @@
         <v>4</v>
       </c>
       <c r="O17" s="111" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="P17" s="114" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="115"/>
       <c r="R17" s="116"/>
@@ -7454,7 +7531,7 @@
       <c r="U17" s="103"/>
       <c r="V17" s="103"/>
     </row>
-    <row r="18" spans="1:22" ht="64.650000000000006" customHeight="1">
+    <row r="18" spans="1:22" ht="64.7" customHeight="1">
       <c r="N18" s="95"/>
       <c r="O18" s="112"/>
       <c r="P18" s="117"/>
@@ -7465,7 +7542,7 @@
       <c r="U18" s="103"/>
       <c r="V18" s="103"/>
     </row>
-    <row r="19" spans="1:22" ht="15.3" customHeight="1">
+    <row r="19" spans="1:22" ht="15.35" customHeight="1">
       <c r="N19" s="95"/>
       <c r="O19" s="112"/>
       <c r="P19" s="117"/>
@@ -7476,7 +7553,7 @@
       <c r="U19" s="103"/>
       <c r="V19" s="103"/>
     </row>
-    <row r="20" spans="1:22" ht="15.3" customHeight="1">
+    <row r="20" spans="1:22" ht="15.35" customHeight="1">
       <c r="N20" s="95"/>
       <c r="O20" s="112"/>
       <c r="P20" s="117"/>
@@ -7487,7 +7564,7 @@
       <c r="U20" s="103"/>
       <c r="V20" s="103"/>
     </row>
-    <row r="21" spans="1:22" ht="11.4" customHeight="1">
+    <row r="21" spans="1:22" ht="11.35" customHeight="1">
       <c r="N21" s="95"/>
       <c r="O21" s="112"/>
       <c r="P21" s="117"/>
@@ -7660,7 +7737,7 @@
     <oddFooter>&amp;LCopyright(c) 2008 HJ All rights reserved.&amp;R3-&amp;P</oddFooter>
   </headerFooter>
   <colBreaks count="2" manualBreakCount="2">
-    <brk id="12" max="21" man="1"/>
+    <brk id="12" max="22" man="1"/>
     <brk id="22" max="26" man="1"/>
   </colBreaks>
   <drawing r:id="rId2"/>
@@ -7675,15 +7752,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>22860</xdr:colOff>
+                    <xdr:colOff>25400</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>15240</xdr:rowOff>
+                    <xdr:rowOff>16933</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>198120</xdr:colOff>
+                    <xdr:colOff>194733</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>143933</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7697,15 +7774,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>312420</xdr:colOff>
+                    <xdr:colOff>313267</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>464820</xdr:colOff>
+                    <xdr:colOff>465667</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>129540</xdr:rowOff>
+                    <xdr:rowOff>127000</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7722,11 +7799,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="D1" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" workbookViewId="0">
       <selection activeCell="I5" sqref="I5:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
   <cols>
     <col min="1" max="1" width="4.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" style="1" customWidth="1"/>
@@ -7741,7 +7818,7 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="56.55" customHeight="1">
+    <row r="1" spans="1:10" ht="56.5" customHeight="1">
       <c r="G1" s="29"/>
       <c r="J1" s="29"/>
     </row>
@@ -7835,7 +7912,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>38</v>
@@ -7853,7 +7930,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="J5" s="21" t="s">
         <v>39</v>
@@ -7867,7 +7944,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>38</v>
@@ -7885,7 +7962,7 @@
         <v>90</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="J6" s="21" t="s">
         <v>1</v>
@@ -7899,7 +7976,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>38</v>
@@ -7917,7 +7994,7 @@
         <v>90</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="J7" s="21" t="s">
         <v>39</v>
@@ -7931,7 +8008,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>1</v>
@@ -7949,7 +8026,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="39" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="J8" s="21" t="s">
         <v>39</v>
@@ -7963,7 +8040,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>1</v>
@@ -7981,7 +8058,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="39" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>37</v>
@@ -7995,7 +8072,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>1</v>
@@ -8013,7 +8090,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="39" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>37</v>
@@ -8027,7 +8104,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>1</v>
@@ -8045,7 +8122,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>37</v>
@@ -8059,7 +8136,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>1</v>
@@ -8077,7 +8154,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="39" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>37</v>
@@ -8091,7 +8168,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>1</v>
@@ -8109,7 +8186,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="39" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>37</v>
@@ -8123,7 +8200,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>1</v>
@@ -8141,7 +8218,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="39" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>37</v>
@@ -8200,25 +8277,25 @@
   </sheetPr>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
   <cols>
     <col min="1" max="1" width="4.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="36.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="25.44140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="1" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="18" customFormat="1" ht="56.55" customHeight="1">
+    <row r="1" spans="1:15" s="18" customFormat="1" ht="56.5" customHeight="1">
       <c r="L1" s="19"/>
       <c r="O1" s="19"/>
     </row>
@@ -8307,16 +8384,16 @@
         <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E6" s="40" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>1</v>
@@ -8333,16 +8410,14 @@
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="E7" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="132" t="s">
-        <v>116</v>
-      </c>
+      <c r="F7" s="132"/>
       <c r="G7" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>1</v>
@@ -8359,14 +8434,14 @@
         <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="133"/>
       <c r="G8" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>1</v>
@@ -8383,16 +8458,16 @@
         <v>17</v>
       </c>
       <c r="D9" s="129" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E9" s="40" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="134" t="s">
-        <v>117</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>1</v>
+        <v>127</v>
+      </c>
+      <c r="G9" s="134" t="s">
+        <v>128</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>1</v>
@@ -8413,9 +8488,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="135"/>
-      <c r="G10" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="G10" s="135"/>
       <c r="H10" s="2" t="s">
         <v>1</v>
       </c>
@@ -8435,9 +8508,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="135"/>
-      <c r="G11" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="G11" s="135"/>
       <c r="H11" s="2" t="s">
         <v>1</v>
       </c>
@@ -8457,9 +8528,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="135"/>
-      <c r="G12" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="G12" s="135"/>
       <c r="H12" s="2" t="s">
         <v>1</v>
       </c>
@@ -8479,14 +8548,12 @@
         <v>1</v>
       </c>
       <c r="F13" s="135"/>
-      <c r="G13" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="G13" s="135"/>
       <c r="H13" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="59.55" customHeight="1">
+    <row r="14" spans="1:15" ht="59.5" customHeight="1">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -8501,9 +8568,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="135"/>
-      <c r="G14" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="G14" s="135"/>
       <c r="H14" s="2" t="s">
         <v>1</v>
       </c>
@@ -8523,9 +8588,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="136"/>
-      <c r="G15" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="G15" s="136"/>
       <c r="H15" s="2" t="s">
         <v>1</v>
       </c>
@@ -8557,14 +8620,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E2:H3"/>
     <mergeCell ref="D9:D15"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="F9:F15"/>
+    <mergeCell ref="G9:G15"/>
   </mergeCells>
   <pageMargins left="0.34" right="0.21" top="0.36" bottom="0.44" header="0.56000000000000005" footer="0.28999999999999998"/>
-  <pageSetup paperSize="9" scale="93" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;9Copyright(c) 2007 JACIC All rights reserved.&amp;R5-&amp;P</oddFooter>
   </headerFooter>

--- a/design-document/ScreenClassManagement.xlsx
+++ b/design-document/ScreenClassManagement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10547" tabRatio="833" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10547" tabRatio="833"/>
   </bookViews>
   <sheets>
     <sheet name="01_Screen Layout" sheetId="4" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="130">
   <si>
     <t>Dữ liệu do hệ thống tính toán và chuyền vào</t>
   </si>
@@ -456,16 +456,19 @@
     <t>Class_Model.cs, Student_Model.cs, Learn_Model.cs, AccsessDB_DAO.cs, DeleteClass_DAO.cs,LoadClass.cs</t>
   </si>
   <si>
-    <t>1 &lt;= giờ học &lt;= 24, phải đúng định dạng</t>
-  </si>
-  <si>
-    <t>0 &lt;= giờ kết thúc &lt;= 24, phải đúng định dạng</t>
-  </si>
-  <si>
-    <t>AKD-MS0015-E</t>
-  </si>
-  <si>
     <t>Chọn ít nhất một ngày học trong tuần</t>
+  </si>
+  <si>
+    <t>0 &lt;= giờ kết thúc &lt;= 24, phải đúng định dạng,             Giờ bắt đầu &lt;Giờ kết thúc</t>
+  </si>
+  <si>
+    <t>Giờ bắt đầu</t>
+  </si>
+  <si>
+    <t>1 &lt;= giờ học &lt;= 24, phải đúng định dạng,                         Giờ bắt đầu&lt; giờ kết thúc</t>
+  </si>
+  <si>
+    <t>AKD-MS006-E</t>
   </si>
 </sst>
 </file>
@@ -2148,7 +2151,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="15240"/>
-          <a:ext cx="8039100" cy="502920"/>
+          <a:ext cx="8923867" cy="502920"/>
           <a:chOff x="0" y="2"/>
           <a:chExt cx="1121" cy="52"/>
         </a:xfrm>
@@ -2855,20 +2858,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>584199</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>8467</xdr:rowOff>
+      <xdr:rowOff>25401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>830260</xdr:colOff>
+      <xdr:colOff>1058333</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>51077</xdr:rowOff>
+      <xdr:rowOff>75717</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22"/>
+        <xdr:cNvPr id="24" name="Picture 23"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2881,8 +2884,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="965200" y="711200"/>
-          <a:ext cx="7366527" cy="6087810"/>
+          <a:off x="584199" y="728134"/>
+          <a:ext cx="7975601" cy="6095516"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6354,11 +6357,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>194733</xdr:colOff>
+      <xdr:colOff>128058</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>41275</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="945708" cy="392415"/>
+    <xdr:ext cx="945708" cy="692150"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="24" name="TextBox 23"/>
@@ -6366,8 +6369,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7687733" y="2159000"/>
-          <a:ext cx="945708" cy="392415"/>
+          <a:off x="6690783" y="2079625"/>
+          <a:ext cx="945708" cy="692150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6390,7 +6393,7 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
+          <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
@@ -6399,7 +6402,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>AKD-MS03-E</a:t>
+            <a:t>AKD-MS002-E</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6408,8 +6411,36 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t> AKD-MS014-E</a:t>
+            <a:t>AKD-MS003-E</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>AKD-MS014-E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>AKD-MS015-E</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="900">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="900">
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6683,15 +6714,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
   <cols>
     <col min="1" max="9" width="9" style="1"/>
     <col min="10" max="10" width="17.44140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="0.33203125" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="14" width="9" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
@@ -7141,7 +7172,7 @@
     <col min="12" max="12" width="8.88671875" style="33" customWidth="1"/>
     <col min="13" max="13" width="8.88671875" style="33"/>
     <col min="14" max="14" width="7.6640625" style="33" customWidth="1"/>
-    <col min="15" max="15" width="19.77734375" style="33" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" style="33" customWidth="1"/>
     <col min="16" max="16" width="17.44140625" style="33" customWidth="1"/>
     <col min="17" max="17" width="27.88671875" style="33" customWidth="1"/>
     <col min="18" max="19" width="17.44140625" style="33" customWidth="1"/>
@@ -7317,7 +7348,7 @@
       <c r="U9" s="90"/>
       <c r="V9" s="90"/>
     </row>
-    <row r="10" spans="1:22" ht="36.85" customHeight="1">
+    <row r="10" spans="1:22" ht="37" customHeight="1">
       <c r="E10" s="37"/>
       <c r="N10" s="46">
         <v>1</v>
@@ -7341,7 +7372,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="36.85" customHeight="1">
+    <row r="11" spans="1:22" ht="37" customHeight="1">
       <c r="A11" s="82" t="s">
         <v>71</v>
       </c>
@@ -7374,7 +7405,7 @@
       <c r="U12" s="103"/>
       <c r="V12" s="103"/>
     </row>
-    <row r="13" spans="1:22" ht="12.85" customHeight="1">
+    <row r="13" spans="1:22" ht="13" customHeight="1">
       <c r="A13" s="36" t="s">
         <v>70</v>
       </c>
@@ -7564,7 +7595,7 @@
       <c r="U20" s="103"/>
       <c r="V20" s="103"/>
     </row>
-    <row r="21" spans="1:22" ht="11.35" customHeight="1">
+    <row r="21" spans="1:22" ht="11.5" customHeight="1">
       <c r="N21" s="95"/>
       <c r="O21" s="112"/>
       <c r="P21" s="117"/>
@@ -8277,8 +8308,8 @@
   </sheetPr>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
@@ -8404,7 +8435,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>21</v>
@@ -8434,7 +8465,7 @@
         <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>1</v>
@@ -8464,10 +8495,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="134" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G9" s="134" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>1</v>
